--- a/PCAB_Debugger_ACS/OffsetDAT_Sample.xlsx
+++ b/PCAB_Debugger_ACS/OffsetDAT_Sample.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_ACS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10079\Desktop\DataFiles\_Programming\PCAB_Debugger\PCAB_Debugger_ACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66487C94-47D5-46E6-9AD2-303EA69CB6A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B93954F-0AD1-4BBE-9A46-AC0BC96265AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OffsetDAT_Sample" sheetId="1" r:id="rId1"/>
     <sheet name="Calc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -968,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,34 +1142,31 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1561,17 +1569,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>Calc!AG1</f>
         <v>#UnitNo</v>
@@ -1601,7 +1609,7 @@
         <v>OffsetPhase[deg]</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>Calc!AG2</f>
         <v>11</v>
@@ -1631,7 +1639,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>Calc!AG3</f>
         <v>11</v>
@@ -1661,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>Calc!AG4</f>
         <v>11</v>
@@ -1691,7 +1699,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>Calc!AG5</f>
         <v>11</v>
@@ -1721,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>Calc!AG6</f>
         <v>11</v>
@@ -1751,7 +1759,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>Calc!AG7</f>
         <v>11</v>
@@ -1781,7 +1789,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>Calc!AG8</f>
         <v>11</v>
@@ -1811,7 +1819,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>Calc!AG9</f>
         <v>11</v>
@@ -1841,7 +1849,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>Calc!AG10</f>
         <v>11</v>
@@ -1871,7 +1879,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>Calc!AG11</f>
         <v>11</v>
@@ -1901,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>Calc!AG12</f>
         <v>11</v>
@@ -1931,7 +1939,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>Calc!AG13</f>
         <v>11</v>
@@ -1961,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>Calc!AG14</f>
         <v>11</v>
@@ -1991,7 +1999,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>Calc!AG15</f>
         <v>11</v>
@@ -2021,7 +2029,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>Calc!AG16</f>
         <v>11</v>
@@ -2051,7 +2059,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>Calc!AG17</f>
         <v>12</v>
@@ -2081,7 +2089,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>Calc!AG18</f>
         <v>12</v>
@@ -2111,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <f>Calc!AG19</f>
         <v>12</v>
@@ -2141,7 +2149,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <f>Calc!AG20</f>
         <v>12</v>
@@ -2171,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <f>Calc!AG21</f>
         <v>12</v>
@@ -2201,7 +2209,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>Calc!AG22</f>
         <v>12</v>
@@ -2231,7 +2239,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>Calc!AG23</f>
         <v>12</v>
@@ -2261,7 +2269,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>Calc!AG24</f>
         <v>12</v>
@@ -2291,7 +2299,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>Calc!AG25</f>
         <v>12</v>
@@ -2321,7 +2329,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>Calc!AG26</f>
         <v>12</v>
@@ -2351,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <f>Calc!AG27</f>
         <v>12</v>
@@ -2381,7 +2389,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <f>Calc!AG28</f>
         <v>12</v>
@@ -2411,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>Calc!AG29</f>
         <v>12</v>
@@ -2441,7 +2449,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>Calc!AG30</f>
         <v>12</v>
@@ -2471,7 +2479,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <f>Calc!AG31</f>
         <v>12</v>
@@ -2501,7 +2509,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <f>Calc!AG32</f>
         <v>13</v>
@@ -2531,7 +2539,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>Calc!AG33</f>
         <v>13</v>
@@ -2561,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <f>Calc!AG34</f>
         <v>13</v>
@@ -2591,7 +2599,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <f>Calc!AG35</f>
         <v>13</v>
@@ -2621,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>Calc!AG36</f>
         <v>13</v>
@@ -2651,7 +2659,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>Calc!AG37</f>
         <v>13</v>
@@ -2681,7 +2689,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <f>Calc!AG38</f>
         <v>13</v>
@@ -2711,7 +2719,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <f>Calc!AG39</f>
         <v>13</v>
@@ -2741,7 +2749,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <f>Calc!AG40</f>
         <v>13</v>
@@ -2771,7 +2779,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>Calc!AG41</f>
         <v>13</v>
@@ -2801,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <f>Calc!AG42</f>
         <v>13</v>
@@ -2831,7 +2839,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <f>Calc!AG43</f>
         <v>13</v>
@@ -2861,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <f>Calc!AG44</f>
         <v>13</v>
@@ -2891,7 +2899,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>Calc!AG45</f>
         <v>13</v>
@@ -2921,7 +2929,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <f>Calc!AG46</f>
         <v>13</v>
@@ -2951,7 +2959,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <f>Calc!AG47</f>
         <v>21</v>
@@ -2981,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>Calc!AG48</f>
         <v>21</v>
@@ -3011,7 +3019,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>Calc!AG49</f>
         <v>21</v>
@@ -3041,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>Calc!AG50</f>
         <v>21</v>
@@ -3071,7 +3079,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <f>Calc!AG51</f>
         <v>21</v>
@@ -3101,7 +3109,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <f>Calc!AG52</f>
         <v>21</v>
@@ -3131,7 +3139,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <f>Calc!AG53</f>
         <v>21</v>
@@ -3161,7 +3169,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <f>Calc!AG54</f>
         <v>21</v>
@@ -3191,7 +3199,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <f>Calc!AG55</f>
         <v>21</v>
@@ -3221,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <f>Calc!AG56</f>
         <v>21</v>
@@ -3251,7 +3259,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <f>Calc!AG57</f>
         <v>21</v>
@@ -3281,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <f>Calc!AG58</f>
         <v>21</v>
@@ -3311,7 +3319,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <f>Calc!AG59</f>
         <v>21</v>
@@ -3341,7 +3349,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <f>Calc!AG60</f>
         <v>21</v>
@@ -3371,7 +3379,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <f>Calc!AG61</f>
         <v>21</v>
@@ -3401,7 +3409,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <f>Calc!AG62</f>
         <v>22</v>
@@ -3431,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <f>Calc!AG63</f>
         <v>22</v>
@@ -3461,7 +3469,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <f>Calc!AG64</f>
         <v>22</v>
@@ -3491,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <f>Calc!AG65</f>
         <v>22</v>
@@ -3521,7 +3529,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <f>Calc!AG66</f>
         <v>22</v>
@@ -3551,7 +3559,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <f>Calc!AG67</f>
         <v>22</v>
@@ -3581,7 +3589,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
         <f>Calc!AG68</f>
         <v>22</v>
@@ -3611,7 +3619,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <f>Calc!AG69</f>
         <v>22</v>
@@ -3641,7 +3649,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <f>Calc!AG70</f>
         <v>22</v>
@@ -3671,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <f>Calc!AG71</f>
         <v>22</v>
@@ -3701,7 +3709,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <f>Calc!AG72</f>
         <v>22</v>
@@ -3731,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <f>Calc!AG73</f>
         <v>22</v>
@@ -3761,7 +3769,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
         <f>Calc!AG74</f>
         <v>22</v>
@@ -3791,7 +3799,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <f>Calc!AG75</f>
         <v>22</v>
@@ -3821,7 +3829,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
         <f>Calc!AG76</f>
         <v>22</v>
@@ -3851,7 +3859,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
         <f>Calc!AG77</f>
         <v>23</v>
@@ -3881,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
         <f>Calc!AG78</f>
         <v>23</v>
@@ -3911,7 +3919,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <f>Calc!AG79</f>
         <v>23</v>
@@ -3941,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
         <f>Calc!AG80</f>
         <v>23</v>
@@ -3971,7 +3979,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <f>Calc!AG81</f>
         <v>23</v>
@@ -4001,7 +4009,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <f>Calc!AG82</f>
         <v>23</v>
@@ -4031,7 +4039,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <f>Calc!AG83</f>
         <v>23</v>
@@ -4061,7 +4069,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <f>Calc!AG84</f>
         <v>23</v>
@@ -4091,7 +4099,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <f>Calc!AG85</f>
         <v>23</v>
@@ -4121,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <f>Calc!AG86</f>
         <v>23</v>
@@ -4151,7 +4159,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <f>Calc!AG87</f>
         <v>23</v>
@@ -4181,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <f>Calc!AG88</f>
         <v>23</v>
@@ -4211,7 +4219,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <f>Calc!AG89</f>
         <v>23</v>
@@ -4241,7 +4249,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <f>Calc!AG90</f>
         <v>23</v>
@@ -4271,7 +4279,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <f>Calc!AG91</f>
         <v>23</v>
@@ -4301,7 +4309,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <f>Calc!AG92</f>
         <v>31</v>
@@ -4331,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <f>Calc!AG93</f>
         <v>31</v>
@@ -4361,7 +4369,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <f>Calc!AG94</f>
         <v>31</v>
@@ -4391,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <f>Calc!AG95</f>
         <v>31</v>
@@ -4421,7 +4429,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <f>Calc!AG96</f>
         <v>31</v>
@@ -4451,7 +4459,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97">
         <f>Calc!AG97</f>
         <v>31</v>
@@ -4481,7 +4489,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98">
         <f>Calc!AG98</f>
         <v>31</v>
@@ -4511,7 +4519,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99">
         <f>Calc!AG99</f>
         <v>31</v>
@@ -4541,7 +4549,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100">
         <f>Calc!AG100</f>
         <v>31</v>
@@ -4571,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101">
         <f>Calc!AG101</f>
         <v>31</v>
@@ -4601,7 +4609,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102">
         <f>Calc!AG102</f>
         <v>31</v>
@@ -4631,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103">
         <f>Calc!AG103</f>
         <v>31</v>
@@ -4661,7 +4669,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104">
         <f>Calc!AG104</f>
         <v>31</v>
@@ -4691,7 +4699,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105">
         <f>Calc!AG105</f>
         <v>31</v>
@@ -4721,7 +4729,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106">
         <f>Calc!AG106</f>
         <v>31</v>
@@ -4751,7 +4759,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107">
         <f>Calc!AG107</f>
         <v>32</v>
@@ -4781,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108">
         <f>Calc!AG108</f>
         <v>32</v>
@@ -4811,7 +4819,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109">
         <f>Calc!AG109</f>
         <v>32</v>
@@ -4841,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110">
         <f>Calc!AG110</f>
         <v>32</v>
@@ -4871,7 +4879,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111">
         <f>Calc!AG111</f>
         <v>32</v>
@@ -4901,7 +4909,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112">
         <f>Calc!AG112</f>
         <v>32</v>
@@ -4931,7 +4939,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113">
         <f>Calc!AG113</f>
         <v>32</v>
@@ -4961,7 +4969,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114">
         <f>Calc!AG114</f>
         <v>32</v>
@@ -4991,7 +4999,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115">
         <f>Calc!AG115</f>
         <v>32</v>
@@ -5021,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116">
         <f>Calc!AG116</f>
         <v>32</v>
@@ -5051,7 +5059,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117">
         <f>Calc!AG117</f>
         <v>32</v>
@@ -5081,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118">
         <f>Calc!AG118</f>
         <v>32</v>
@@ -5111,7 +5119,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119">
         <f>Calc!AG119</f>
         <v>32</v>
@@ -5141,7 +5149,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120">
         <f>Calc!AG120</f>
         <v>32</v>
@@ -5171,7 +5179,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121">
         <f>Calc!AG121</f>
         <v>32</v>
@@ -5201,7 +5209,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122">
         <f>Calc!AG122</f>
         <v>33</v>
@@ -5231,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123">
         <f>Calc!AG123</f>
         <v>33</v>
@@ -5261,7 +5269,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124">
         <f>Calc!AG124</f>
         <v>33</v>
@@ -5291,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125">
         <f>Calc!AG125</f>
         <v>33</v>
@@ -5321,7 +5329,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126">
         <f>Calc!AG126</f>
         <v>33</v>
@@ -5351,7 +5359,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127">
         <f>Calc!AG127</f>
         <v>33</v>
@@ -5381,7 +5389,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128">
         <f>Calc!AG128</f>
         <v>33</v>
@@ -5411,7 +5419,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129">
         <f>Calc!AG129</f>
         <v>33</v>
@@ -5441,7 +5449,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130">
         <f>Calc!AG130</f>
         <v>33</v>
@@ -5471,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131">
         <f>Calc!AG131</f>
         <v>33</v>
@@ -5501,7 +5509,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132">
         <f>Calc!AG132</f>
         <v>33</v>
@@ -5531,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133">
         <f>Calc!AG133</f>
         <v>33</v>
@@ -5561,7 +5569,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134">
         <f>Calc!AG134</f>
         <v>33</v>
@@ -5591,7 +5599,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135">
         <f>Calc!AG135</f>
         <v>33</v>
@@ -5621,7 +5629,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136">
         <f>Calc!AG136</f>
         <v>33</v>
@@ -5662,24 +5670,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AT163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="18" max="27" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.09765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AG1" t="s">
         <v>14</v>
       </c>
@@ -5702,8 +5708,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B2" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="54">
@@ -5791,8 +5797,8 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="76"/>
+    <row r="3" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B3" s="75"/>
       <c r="C3" s="57">
         <f>C2</f>
         <v>11</v>
@@ -5853,38 +5859,38 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63">
         <f>D5</f>
         <v>11</v>
       </c>
-      <c r="AH3" s="64">
+      <c r="AH3" s="63">
         <f>D18</f>
         <v>2</v>
       </c>
-      <c r="AI3" s="64">
+      <c r="AI3" s="63">
         <f>D31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ3" s="64">
+      <c r="AJ3" s="63">
         <f>D44</f>
         <v>-281.25</v>
       </c>
-      <c r="AK3" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="64">
+      <c r="AK3" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="63">
         <f>D57</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="64">
+      <c r="AM3" s="63">
         <f>D70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="76"/>
+    <row r="4" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B4" s="75"/>
       <c r="C4" s="57">
         <f>C3</f>
         <v>11</v>
@@ -5945,45 +5951,45 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64">
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63">
         <f>E5</f>
         <v>11</v>
       </c>
-      <c r="AH4" s="64">
+      <c r="AH4" s="63">
         <f>E18</f>
         <v>3</v>
       </c>
-      <c r="AI4" s="64">
+      <c r="AI4" s="63">
         <f>E31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ4" s="64">
+      <c r="AJ4" s="63">
         <f>E44</f>
         <v>-218.75</v>
       </c>
-      <c r="AK4" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="64">
+      <c r="AK4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="63">
         <f>E57</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="64">
+      <c r="AM4" s="63">
         <f>E70</f>
         <v>-90</v>
       </c>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-    </row>
-    <row r="5" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="76"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+    </row>
+    <row r="5" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="75"/>
       <c r="C5" s="60">
         <f>C4</f>
         <v>11</v>
@@ -6044,45 +6050,45 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64">
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63">
         <f>F5</f>
         <v>11</v>
       </c>
-      <c r="AH5" s="64">
+      <c r="AH5" s="63">
         <f>F18</f>
         <v>4</v>
       </c>
-      <c r="AI5" s="64">
+      <c r="AI5" s="63">
         <f>F31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ5" s="64">
+      <c r="AJ5" s="63">
         <f>F44</f>
         <v>-156.25</v>
       </c>
-      <c r="AK5" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="64">
+      <c r="AK5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="63">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="64">
+      <c r="AM5" s="63">
         <f>F70</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="63"/>
-    </row>
-    <row r="6" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B6" s="76"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+    </row>
+    <row r="6" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B6" s="75"/>
       <c r="C6" s="54">
         <v>21</v>
       </c>
@@ -6140,38 +6146,38 @@
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64">
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63">
         <f>F4</f>
         <v>11</v>
       </c>
-      <c r="AH6" s="64">
+      <c r="AH6" s="63">
         <f>F17</f>
         <v>5</v>
       </c>
-      <c r="AI6" s="64">
+      <c r="AI6" s="63">
         <f>F30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ6" s="64">
+      <c r="AJ6" s="63">
         <f>F43</f>
         <v>-156.25</v>
       </c>
-      <c r="AK6" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="64">
+      <c r="AK6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="63">
         <f>F56</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="64">
+      <c r="AM6" s="63">
         <f>F69</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B7" s="76"/>
+    <row r="7" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B7" s="75"/>
       <c r="C7" s="57">
         <f>C6</f>
         <v>21</v>
@@ -6232,38 +6238,38 @@
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63">
         <f>E4</f>
         <v>11</v>
       </c>
-      <c r="AH7" s="64">
+      <c r="AH7" s="63">
         <f>E17</f>
         <v>6</v>
       </c>
-      <c r="AI7" s="64">
+      <c r="AI7" s="63">
         <f>E30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ7" s="64">
+      <c r="AJ7" s="63">
         <f>E43</f>
         <v>-218.75</v>
       </c>
-      <c r="AK7" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="64">
+      <c r="AK7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="63">
         <f>E56</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="64">
+      <c r="AM7" s="63">
         <f>E69</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B8" s="76"/>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B8" s="75"/>
       <c r="C8" s="57">
         <f>C7</f>
         <v>21</v>
@@ -6324,38 +6330,38 @@
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64">
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63">
         <f>D4</f>
         <v>11</v>
       </c>
-      <c r="AH8" s="64">
+      <c r="AH8" s="63">
         <f>D17</f>
         <v>7</v>
       </c>
-      <c r="AI8" s="64">
+      <c r="AI8" s="63">
         <f>D30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ8" s="64">
+      <c r="AJ8" s="63">
         <f>D43</f>
         <v>-281.25</v>
       </c>
-      <c r="AK8" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="64">
+      <c r="AK8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="63">
         <f>D56</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="64">
+      <c r="AM8" s="63">
         <f>D69</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="9" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="76"/>
+    <row r="9" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="75"/>
       <c r="C9" s="60">
         <f>C8</f>
         <v>21</v>
@@ -6444,8 +6450,8 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B10" s="76"/>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B10" s="75"/>
       <c r="C10" s="54">
         <v>31</v>
       </c>
@@ -6531,8 +6537,8 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="11" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B11" s="76"/>
+    <row r="11" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B11" s="75"/>
       <c r="C11" s="57">
         <f>C10</f>
         <v>31</v>
@@ -6593,38 +6599,38 @@
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64">
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63">
         <f>D3</f>
         <v>11</v>
       </c>
-      <c r="AH11" s="64">
+      <c r="AH11" s="63">
         <f>D16</f>
         <v>10</v>
       </c>
-      <c r="AI11" s="64">
+      <c r="AI11" s="63">
         <f>D29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ11" s="64">
+      <c r="AJ11" s="63">
         <f>D42</f>
         <v>-281.25</v>
       </c>
-      <c r="AK11" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="64">
+      <c r="AK11" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="63">
         <f>D55</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="64">
+      <c r="AM11" s="63">
         <f>D68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B12" s="76"/>
+    <row r="12" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B12" s="75"/>
       <c r="C12" s="57">
         <f>C11</f>
         <v>31</v>
@@ -6685,38 +6691,38 @@
       <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64">
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63">
         <f>E3</f>
         <v>11</v>
       </c>
-      <c r="AH12" s="64">
+      <c r="AH12" s="63">
         <f>E16</f>
         <v>11</v>
       </c>
-      <c r="AI12" s="64">
+      <c r="AI12" s="63">
         <f>E29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ12" s="64">
+      <c r="AJ12" s="63">
         <f>E42</f>
         <v>-218.75</v>
       </c>
-      <c r="AK12" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="64">
+      <c r="AK12" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="63">
         <f>E55</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="64">
+      <c r="AM12" s="63">
         <f>E68</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="13" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="76"/>
+    <row r="13" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="75"/>
       <c r="C13" s="60">
         <f>C12</f>
         <v>31</v>
@@ -6777,69 +6783,69 @@
       <c r="AA13"/>
       <c r="AB13"/>
       <c r="AC13"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64">
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63">
         <f>F3</f>
         <v>11</v>
       </c>
-      <c r="AH13" s="64">
+      <c r="AH13" s="63">
         <f>F16</f>
         <v>12</v>
       </c>
-      <c r="AI13" s="64">
+      <c r="AI13" s="63">
         <f>F29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ13" s="64">
+      <c r="AJ13" s="63">
         <f>F42</f>
         <v>-156.25</v>
       </c>
-      <c r="AK13" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="64">
+      <c r="AK13" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="63">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="64">
+      <c r="AM13" s="63">
         <f>F68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63">
+    <row r="14" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58">
         <f>F2</f>
         <v>11</v>
       </c>
-      <c r="AH14" s="63">
+      <c r="AH14" s="58">
         <f>F15</f>
         <v>13</v>
       </c>
-      <c r="AI14" s="63">
+      <c r="AI14" s="58">
         <f>F28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ14" s="63">
+      <c r="AJ14" s="58">
         <f>F41</f>
         <v>-156.25</v>
       </c>
-      <c r="AK14" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="63">
+      <c r="AK14" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="58">
         <f>F54</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="63">
+      <c r="AM14" s="58">
         <f>F67</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B15" s="76" t="s">
+    <row r="15" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B15" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="23"/>
@@ -6878,7 +6884,7 @@
         <f t="shared" ref="N15:N26" si="35">J15</f>
         <v>13</v>
       </c>
-      <c r="Q15" s="76" t="s">
+      <c r="Q15" s="75" t="s">
         <v>6</v>
       </c>
       <c r="R15" s="23"/>
@@ -6917,38 +6923,38 @@
         <f t="shared" ref="AC15:AC26" si="41">Y15</f>
         <v>13</v>
       </c>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63">
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58">
         <f>E2</f>
         <v>11</v>
       </c>
-      <c r="AH15" s="63">
+      <c r="AH15" s="58">
         <f>E15</f>
         <v>14</v>
       </c>
-      <c r="AI15" s="63">
+      <c r="AI15" s="58">
         <f>E28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ15" s="63">
+      <c r="AJ15" s="58">
         <f>E41</f>
         <v>-218.75</v>
       </c>
-      <c r="AK15" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="63">
+      <c r="AK15" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="58">
         <f>E54</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="63">
+      <c r="AM15" s="58">
         <f>E67</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B16" s="76"/>
+    <row r="16" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B16" s="75"/>
       <c r="C16" s="27">
         <v>9</v>
       </c>
@@ -6993,7 +6999,7 @@
         <f t="shared" si="35"/>
         <v>12</v>
       </c>
-      <c r="Q16" s="76"/>
+      <c r="Q16" s="75"/>
       <c r="R16" s="27">
         <v>9</v>
       </c>
@@ -7038,38 +7044,38 @@
         <f t="shared" si="41"/>
         <v>12</v>
       </c>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63">
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58">
         <f>D2</f>
         <v>11</v>
       </c>
-      <c r="AH16" s="63">
+      <c r="AH16" s="58">
         <f>D15</f>
         <v>15</v>
       </c>
-      <c r="AI16" s="63">
+      <c r="AI16" s="58">
         <f>D28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ16" s="63">
+      <c r="AJ16" s="58">
         <f>D41</f>
         <v>-281.25</v>
       </c>
-      <c r="AK16" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="63">
+      <c r="AK16" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="58">
         <f>D54</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="63">
+      <c r="AM16" s="58">
         <f>D67</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B17" s="76"/>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B17" s="75"/>
       <c r="C17" s="31">
         <v>8</v>
       </c>
@@ -7114,7 +7120,7 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="Q17" s="76"/>
+      <c r="Q17" s="75"/>
       <c r="R17" s="31">
         <v>8</v>
       </c>
@@ -7159,38 +7165,38 @@
         <f t="shared" si="41"/>
         <v>5</v>
       </c>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64">
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63">
         <f>G5</f>
         <v>12</v>
       </c>
-      <c r="AH17" s="64">
+      <c r="AH17" s="63">
         <f>G18</f>
         <v>1</v>
       </c>
-      <c r="AI17" s="64">
+      <c r="AI17" s="63">
         <f>G31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ17" s="64">
+      <c r="AJ17" s="63">
         <f>G44</f>
         <v>-93.75</v>
       </c>
-      <c r="AK17" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="64">
+      <c r="AK17" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="63">
         <f>G57</f>
         <v>0</v>
       </c>
-      <c r="AM17" s="64">
+      <c r="AM17" s="63">
         <f>G70</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="18" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="76"/>
+    <row r="18" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="75"/>
       <c r="C18" s="35">
         <v>1</v>
       </c>
@@ -7235,7 +7241,7 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="Q18" s="76"/>
+      <c r="Q18" s="75"/>
       <c r="R18" s="35">
         <v>1</v>
       </c>
@@ -7280,38 +7286,38 @@
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64">
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63">
         <f>H5</f>
         <v>12</v>
       </c>
-      <c r="AH18" s="64">
+      <c r="AH18" s="63">
         <f>H18</f>
         <v>2</v>
       </c>
-      <c r="AI18" s="64">
+      <c r="AI18" s="63">
         <f>H31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ18" s="64">
+      <c r="AJ18" s="63">
         <f>H44</f>
         <v>-31.25</v>
       </c>
-      <c r="AK18" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="64">
+      <c r="AK18" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="63">
         <f>H57</f>
         <v>0</v>
       </c>
-      <c r="AM18" s="64">
+      <c r="AM18" s="63">
         <f>H70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B19" s="76"/>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B19" s="75"/>
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -7356,7 +7362,7 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="Q19" s="76"/>
+      <c r="Q19" s="75"/>
       <c r="R19" s="39">
         <v>13</v>
       </c>
@@ -7401,38 +7407,38 @@
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64">
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63">
         <f>I5</f>
         <v>12</v>
       </c>
-      <c r="AH19" s="64">
+      <c r="AH19" s="63">
         <f>I18</f>
         <v>3</v>
       </c>
-      <c r="AI19" s="64">
+      <c r="AI19" s="63">
         <f>I31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ19" s="64">
+      <c r="AJ19" s="63">
         <f>I44</f>
         <v>31.25</v>
       </c>
-      <c r="AK19" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="64">
+      <c r="AK19" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="63">
         <f>I57</f>
         <v>0</v>
       </c>
-      <c r="AM19" s="64">
+      <c r="AM19" s="63">
         <f>I70</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B20" s="76"/>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B20" s="75"/>
       <c r="C20" s="27">
         <v>14</v>
       </c>
@@ -7477,7 +7483,7 @@
         <f t="shared" si="35"/>
         <v>3</v>
       </c>
-      <c r="Q20" s="76"/>
+      <c r="Q20" s="75"/>
       <c r="R20" s="27">
         <v>14</v>
       </c>
@@ -7522,38 +7528,38 @@
         <f t="shared" si="41"/>
         <v>3</v>
       </c>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64">
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63">
         <f>J5</f>
         <v>12</v>
       </c>
-      <c r="AH20" s="64">
+      <c r="AH20" s="63">
         <f>J18</f>
         <v>4</v>
       </c>
-      <c r="AI20" s="64">
+      <c r="AI20" s="63">
         <f>J31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ20" s="64">
+      <c r="AJ20" s="63">
         <f>J44</f>
         <v>93.75</v>
       </c>
-      <c r="AK20" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="64">
+      <c r="AK20" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="63">
         <f>J57</f>
         <v>0</v>
       </c>
-      <c r="AM20" s="64">
+      <c r="AM20" s="63">
         <f>J70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B21" s="76"/>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B21" s="75"/>
       <c r="C21" s="31">
         <v>15</v>
       </c>
@@ -7598,7 +7604,7 @@
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="Q21" s="76"/>
+      <c r="Q21" s="75"/>
       <c r="R21" s="31">
         <v>15</v>
       </c>
@@ -7643,38 +7649,38 @@
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64">
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63">
         <f>J4</f>
         <v>12</v>
       </c>
-      <c r="AH21" s="64">
+      <c r="AH21" s="63">
         <f>J17</f>
         <v>5</v>
       </c>
-      <c r="AI21" s="64">
+      <c r="AI21" s="63">
         <f>J30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ21" s="64">
+      <c r="AJ21" s="63">
         <f>J43</f>
         <v>93.75</v>
       </c>
-      <c r="AK21" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="64">
+      <c r="AK21" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="63">
         <f>J56</f>
         <v>0</v>
       </c>
-      <c r="AM21" s="64">
+      <c r="AM21" s="63">
         <f>J69</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="22" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="76"/>
+    <row r="22" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="75"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41">
         <v>9</v>
@@ -7711,7 +7717,7 @@
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="76"/>
+      <c r="Q22" s="75"/>
       <c r="R22" s="40"/>
       <c r="S22" s="41">
         <v>9</v>
@@ -7748,38 +7754,38 @@
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64">
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63">
         <f>I4</f>
         <v>12</v>
       </c>
-      <c r="AH22" s="64">
+      <c r="AH22" s="63">
         <f>I17</f>
         <v>6</v>
       </c>
-      <c r="AI22" s="64">
+      <c r="AI22" s="63">
         <f>I30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ22" s="64">
+      <c r="AJ22" s="63">
         <f>I43</f>
         <v>31.25</v>
       </c>
-      <c r="AK22" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="64">
+      <c r="AK22" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="63">
         <f>I56</f>
         <v>0</v>
       </c>
-      <c r="AM22" s="64">
+      <c r="AM22" s="63">
         <f>I69</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B23" s="76"/>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B23" s="75"/>
       <c r="C23" s="18">
         <f>C19</f>
         <v>13</v>
@@ -7828,7 +7834,7 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="Q23" s="76"/>
+      <c r="Q23" s="75"/>
       <c r="R23" s="18">
         <f>R19</f>
         <v>13</v>
@@ -7877,38 +7883,38 @@
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64">
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63">
         <f>H4</f>
         <v>12</v>
       </c>
-      <c r="AH23" s="64">
+      <c r="AH23" s="63">
         <f>H17</f>
         <v>7</v>
       </c>
-      <c r="AI23" s="64">
+      <c r="AI23" s="63">
         <f>H30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ23" s="64">
+      <c r="AJ23" s="63">
         <f>H43</f>
         <v>-31.25</v>
       </c>
-      <c r="AK23" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="64">
+      <c r="AK23" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="63">
         <f>H56</f>
         <v>0</v>
       </c>
-      <c r="AM23" s="64">
+      <c r="AM23" s="63">
         <f>H69</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B24" s="76"/>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B24" s="75"/>
       <c r="C24" s="6">
         <f t="shared" ref="C24:F24" si="52">C20</f>
         <v>14</v>
@@ -7957,7 +7963,7 @@
         <f t="shared" si="35"/>
         <v>3</v>
       </c>
-      <c r="Q24" s="76"/>
+      <c r="Q24" s="75"/>
       <c r="R24" s="6">
         <f t="shared" ref="R24:U24" si="53">R20</f>
         <v>14</v>
@@ -8006,38 +8012,38 @@
         <f t="shared" si="41"/>
         <v>3</v>
       </c>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64">
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63">
         <f>G4</f>
         <v>12</v>
       </c>
-      <c r="AH24" s="64">
+      <c r="AH24" s="63">
         <f>G17</f>
         <v>8</v>
       </c>
-      <c r="AI24" s="64">
+      <c r="AI24" s="63">
         <f>G30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ24" s="64">
+      <c r="AJ24" s="63">
         <f>G43</f>
         <v>-93.75</v>
       </c>
-      <c r="AK24" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="64">
+      <c r="AK24" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="63">
         <f>G56</f>
         <v>0</v>
       </c>
-      <c r="AM24" s="64">
+      <c r="AM24" s="63">
         <f>G69</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B25" s="76"/>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B25" s="75"/>
       <c r="C25" s="10">
         <f t="shared" ref="C25:F25" si="54">C21</f>
         <v>15</v>
@@ -8086,7 +8092,7 @@
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="Q25" s="76"/>
+      <c r="Q25" s="75"/>
       <c r="R25" s="10">
         <f t="shared" ref="R25:U25" si="55">R21</f>
         <v>15</v>
@@ -8135,38 +8141,38 @@
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
-      <c r="AE25" s="64"/>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64">
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63">
         <f>G3</f>
         <v>12</v>
       </c>
-      <c r="AH25" s="64">
+      <c r="AH25" s="63">
         <f>G16</f>
         <v>9</v>
       </c>
-      <c r="AI25" s="64">
+      <c r="AI25" s="63">
         <f>G29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ25" s="64">
+      <c r="AJ25" s="63">
         <f>G42</f>
         <v>-93.75</v>
       </c>
-      <c r="AK25" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="64">
+      <c r="AK25" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="63">
         <f>G55</f>
         <v>0</v>
       </c>
-      <c r="AM25" s="64">
+      <c r="AM25" s="63">
         <f>G68</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="26" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="76"/>
+    <row r="26" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="75"/>
       <c r="C26" s="19">
         <f t="shared" ref="C26:F26" si="56">C22</f>
         <v>0</v>
@@ -8209,7 +8215,7 @@
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="76"/>
+      <c r="Q26" s="75"/>
       <c r="R26" s="19">
         <f t="shared" ref="R26:U26" si="57">R22</f>
         <v>0</v>
@@ -8252,69 +8258,69 @@
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64">
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63">
         <f>H3</f>
         <v>12</v>
       </c>
-      <c r="AH26" s="64">
+      <c r="AH26" s="63">
         <f>H16</f>
         <v>10</v>
       </c>
-      <c r="AI26" s="64">
+      <c r="AI26" s="63">
         <f>H29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ26" s="64">
+      <c r="AJ26" s="63">
         <f>H42</f>
         <v>-31.25</v>
       </c>
-      <c r="AK26" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="64">
+      <c r="AK26" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="63">
         <f>H55</f>
         <v>0</v>
       </c>
-      <c r="AM26" s="64">
+      <c r="AM26" s="63">
         <f>H68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64">
+    <row r="27" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63">
         <f>I3</f>
         <v>12</v>
       </c>
-      <c r="AH27" s="64">
+      <c r="AH27" s="63">
         <f>I16</f>
         <v>11</v>
       </c>
-      <c r="AI27" s="64">
+      <c r="AI27" s="63">
         <f>I29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ27" s="64">
+      <c r="AJ27" s="63">
         <f>I42</f>
         <v>31.25</v>
       </c>
-      <c r="AK27" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="64">
+      <c r="AK27" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="63">
         <f>I55</f>
         <v>0</v>
       </c>
-      <c r="AM27" s="64">
+      <c r="AM27" s="63">
         <f>I68</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B28" s="76" t="s">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B28" s="75" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="44">
@@ -8368,7 +8374,7 @@
       <c r="P28" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" s="76" t="s">
+      <c r="Q28" s="75" t="s">
         <v>8</v>
       </c>
       <c r="R28" s="44">
@@ -8418,38 +8424,38 @@
       <c r="AC28" s="26">
         <v>6</v>
       </c>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64">
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63">
         <f>J3</f>
         <v>12</v>
       </c>
-      <c r="AH28" s="64">
+      <c r="AH28" s="63">
         <f>J16</f>
         <v>12</v>
       </c>
-      <c r="AI28" s="64">
+      <c r="AI28" s="63">
         <f>J29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ28" s="64">
+      <c r="AJ28" s="63">
         <f>J42</f>
         <v>93.75</v>
       </c>
-      <c r="AK28" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="64">
+      <c r="AK28" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="63">
         <f>J55</f>
         <v>0</v>
       </c>
-      <c r="AM28" s="64">
+      <c r="AM28" s="63">
         <f>J68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B29" s="76"/>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B29" s="75"/>
       <c r="C29" s="6">
         <f t="shared" si="58"/>
         <v>281.25</v>
@@ -8502,12 +8508,12 @@
         <f>2*P30</f>
         <v>62.5</v>
       </c>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="65">
+      <c r="Q29" s="75"/>
+      <c r="R29" s="64">
         <f t="shared" ref="R29:AB29" si="71">S29</f>
         <v>5</v>
       </c>
-      <c r="S29" s="66">
+      <c r="S29" s="65">
         <f t="shared" si="71"/>
         <v>5</v>
       </c>
@@ -8519,11 +8525,11 @@
         <f t="shared" si="71"/>
         <v>5</v>
       </c>
-      <c r="V29" s="65">
+      <c r="V29" s="64">
         <f t="shared" si="71"/>
         <v>5</v>
       </c>
-      <c r="W29" s="66">
+      <c r="W29" s="65">
         <f t="shared" si="71"/>
         <v>5</v>
       </c>
@@ -8535,11 +8541,11 @@
         <f t="shared" si="71"/>
         <v>5</v>
       </c>
-      <c r="Z29" s="65">
+      <c r="Z29" s="64">
         <f t="shared" si="71"/>
         <v>5</v>
       </c>
-      <c r="AA29" s="66">
+      <c r="AA29" s="65">
         <f t="shared" si="71"/>
         <v>5</v>
       </c>
@@ -8550,38 +8556,38 @@
       <c r="AC29" s="30">
         <v>5</v>
       </c>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63">
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58">
         <f>J2</f>
         <v>12</v>
       </c>
-      <c r="AH29" s="63">
+      <c r="AH29" s="58">
         <f>J15</f>
         <v>13</v>
       </c>
-      <c r="AI29" s="63">
+      <c r="AI29" s="58">
         <f>J28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ29" s="63">
+      <c r="AJ29" s="58">
         <f>J41</f>
         <v>93.75</v>
       </c>
-      <c r="AK29" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="63">
+      <c r="AK29" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="58">
         <f>J54</f>
         <v>0</v>
       </c>
-      <c r="AM29" s="63">
+      <c r="AM29" s="58">
         <f>J67</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B30" s="76"/>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B30" s="75"/>
       <c r="C30" s="10">
         <f t="shared" si="58"/>
         <v>218.75</v>
@@ -8633,12 +8639,12 @@
       <c r="P30">
         <v>31.25</v>
       </c>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="67">
+      <c r="Q30" s="75"/>
+      <c r="R30" s="66">
         <f t="shared" ref="R30:AB30" si="72">S30</f>
         <v>4</v>
       </c>
-      <c r="S30" s="68">
+      <c r="S30" s="67">
         <f t="shared" si="72"/>
         <v>4</v>
       </c>
@@ -8650,11 +8656,11 @@
         <f t="shared" si="72"/>
         <v>4</v>
       </c>
-      <c r="V30" s="67">
+      <c r="V30" s="66">
         <f t="shared" si="72"/>
         <v>4</v>
       </c>
-      <c r="W30" s="68">
+      <c r="W30" s="67">
         <f t="shared" si="72"/>
         <v>4</v>
       </c>
@@ -8666,11 +8672,11 @@
         <f t="shared" si="72"/>
         <v>4</v>
       </c>
-      <c r="Z30" s="67">
+      <c r="Z30" s="66">
         <f t="shared" si="72"/>
         <v>4</v>
       </c>
-      <c r="AA30" s="68">
+      <c r="AA30" s="67">
         <f t="shared" si="72"/>
         <v>4</v>
       </c>
@@ -8681,38 +8687,38 @@
       <c r="AC30" s="34">
         <v>4</v>
       </c>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63">
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58">
         <f>I2</f>
         <v>12</v>
       </c>
-      <c r="AH30" s="63">
+      <c r="AH30" s="58">
         <f>I15</f>
         <v>14</v>
       </c>
-      <c r="AI30" s="63">
+      <c r="AI30" s="58">
         <f>I28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ30" s="63">
+      <c r="AJ30" s="58">
         <f>I41</f>
         <v>31.25</v>
       </c>
-      <c r="AK30" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="63">
+      <c r="AK30" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="58">
         <f>I54</f>
         <v>0</v>
       </c>
-      <c r="AM30" s="63">
+      <c r="AM30" s="58">
         <f>I67</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="31" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="76"/>
+    <row r="31" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="75"/>
       <c r="C31" s="14">
         <f t="shared" si="58"/>
         <v>156.25</v>
@@ -8761,12 +8767,12 @@
         <f t="shared" si="68"/>
         <v>156.25</v>
       </c>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="69">
+      <c r="Q31" s="75"/>
+      <c r="R31" s="68">
         <f t="shared" ref="R31:AB31" si="73">S31</f>
         <v>3</v>
       </c>
-      <c r="S31" s="70">
+      <c r="S31" s="69">
         <f t="shared" si="73"/>
         <v>3</v>
       </c>
@@ -8778,11 +8784,11 @@
         <f t="shared" si="73"/>
         <v>3</v>
       </c>
-      <c r="V31" s="69">
+      <c r="V31" s="68">
         <f t="shared" si="73"/>
         <v>3</v>
       </c>
-      <c r="W31" s="70">
+      <c r="W31" s="69">
         <f t="shared" si="73"/>
         <v>3</v>
       </c>
@@ -8794,11 +8800,11 @@
         <f t="shared" si="73"/>
         <v>3</v>
       </c>
-      <c r="Z31" s="69">
+      <c r="Z31" s="68">
         <f t="shared" si="73"/>
         <v>3</v>
       </c>
-      <c r="AA31" s="70">
+      <c r="AA31" s="69">
         <f t="shared" si="73"/>
         <v>3</v>
       </c>
@@ -8809,38 +8815,38 @@
       <c r="AC31" s="38">
         <v>3</v>
       </c>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63">
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58">
         <f>H2</f>
         <v>12</v>
       </c>
-      <c r="AH31" s="63">
+      <c r="AH31" s="58">
         <f>H15</f>
         <v>15</v>
       </c>
-      <c r="AI31" s="63">
+      <c r="AI31" s="58">
         <f>H28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ31" s="63">
+      <c r="AJ31" s="58">
         <f>H41</f>
         <v>-31.25</v>
       </c>
-      <c r="AK31" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="63">
+      <c r="AK31" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="58">
         <f>H54</f>
         <v>0</v>
       </c>
-      <c r="AM31" s="63">
+      <c r="AM31" s="58">
         <f>H67</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B32" s="76"/>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B32" s="75"/>
       <c r="C32" s="18">
         <f t="shared" si="58"/>
         <v>93.75</v>
@@ -8889,8 +8895,8 @@
         <f t="shared" si="68"/>
         <v>93.75</v>
       </c>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="71">
+      <c r="Q32" s="75"/>
+      <c r="R32" s="70">
         <f t="shared" ref="R32:AB32" si="74">S32</f>
         <v>2</v>
       </c>
@@ -8906,7 +8912,7 @@
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="V32" s="71">
+      <c r="V32" s="70">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
@@ -8922,7 +8928,7 @@
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="Z32" s="71">
+      <c r="Z32" s="70">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
@@ -8937,38 +8943,38 @@
       <c r="AC32" s="26">
         <v>2</v>
       </c>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64">
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63">
         <f>K5</f>
         <v>13</v>
       </c>
-      <c r="AH32" s="64">
+      <c r="AH32" s="63">
         <f>K18</f>
         <v>1</v>
       </c>
-      <c r="AI32" s="64">
+      <c r="AI32" s="63">
         <f>K31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ32" s="64">
+      <c r="AJ32" s="63">
         <f>K44</f>
         <v>156.25</v>
       </c>
-      <c r="AK32" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="64">
+      <c r="AK32" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="63">
         <f>K57</f>
         <v>0</v>
       </c>
-      <c r="AM32" s="64">
+      <c r="AM32" s="63">
         <f>K70</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B33" s="76"/>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B33" s="75"/>
       <c r="C33" s="6">
         <f t="shared" si="58"/>
         <v>31.25</v>
@@ -9017,12 +9023,12 @@
         <f t="shared" si="68"/>
         <v>31.25</v>
       </c>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="65">
+      <c r="Q33" s="75"/>
+      <c r="R33" s="64">
         <f t="shared" ref="R33:AB33" si="75">S33</f>
         <v>1</v>
       </c>
-      <c r="S33" s="66">
+      <c r="S33" s="65">
         <f t="shared" si="75"/>
         <v>1</v>
       </c>
@@ -9034,11 +9040,11 @@
         <f t="shared" si="75"/>
         <v>1</v>
       </c>
-      <c r="V33" s="65">
+      <c r="V33" s="64">
         <f t="shared" si="75"/>
         <v>1</v>
       </c>
-      <c r="W33" s="66">
+      <c r="W33" s="65">
         <f t="shared" si="75"/>
         <v>1</v>
       </c>
@@ -9050,11 +9056,11 @@
         <f t="shared" si="75"/>
         <v>1</v>
       </c>
-      <c r="Z33" s="65">
+      <c r="Z33" s="64">
         <f t="shared" si="75"/>
         <v>1</v>
       </c>
-      <c r="AA33" s="66">
+      <c r="AA33" s="65">
         <f t="shared" si="75"/>
         <v>1</v>
       </c>
@@ -9065,38 +9071,38 @@
       <c r="AC33" s="30">
         <v>1</v>
       </c>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64">
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63">
         <f>L5</f>
         <v>13</v>
       </c>
-      <c r="AH33" s="64">
+      <c r="AH33" s="63">
         <f>L18</f>
         <v>2</v>
       </c>
-      <c r="AI33" s="64">
+      <c r="AI33" s="63">
         <f>L31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ33" s="64">
+      <c r="AJ33" s="63">
         <f>L44</f>
         <v>218.75</v>
       </c>
-      <c r="AK33" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="64">
+      <c r="AK33" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="63">
         <f>L57</f>
         <v>0</v>
       </c>
-      <c r="AM33" s="64">
+      <c r="AM33" s="63">
         <f>L70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B34" s="76"/>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B34" s="75"/>
       <c r="C34" s="10">
         <f t="shared" si="58"/>
         <v>-31.25</v>
@@ -9145,12 +9151,12 @@
         <f t="shared" si="68"/>
         <v>-31.25</v>
       </c>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="67">
+      <c r="Q34" s="75"/>
+      <c r="R34" s="66">
         <f t="shared" ref="R34:AB34" si="76">S34</f>
         <v>-1</v>
       </c>
-      <c r="S34" s="68">
+      <c r="S34" s="67">
         <f t="shared" si="76"/>
         <v>-1</v>
       </c>
@@ -9162,11 +9168,11 @@
         <f t="shared" si="76"/>
         <v>-1</v>
       </c>
-      <c r="V34" s="67">
+      <c r="V34" s="66">
         <f t="shared" si="76"/>
         <v>-1</v>
       </c>
-      <c r="W34" s="68">
+      <c r="W34" s="67">
         <f t="shared" si="76"/>
         <v>-1</v>
       </c>
@@ -9178,11 +9184,11 @@
         <f t="shared" si="76"/>
         <v>-1</v>
       </c>
-      <c r="Z34" s="67">
+      <c r="Z34" s="66">
         <f t="shared" si="76"/>
         <v>-1</v>
       </c>
-      <c r="AA34" s="68">
+      <c r="AA34" s="67">
         <f t="shared" si="76"/>
         <v>-1</v>
       </c>
@@ -9194,38 +9200,38 @@
         <f>-AC33</f>
         <v>-1</v>
       </c>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64">
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63">
         <f>M5</f>
         <v>13</v>
       </c>
-      <c r="AH34" s="64">
+      <c r="AH34" s="63">
         <f>M18</f>
         <v>3</v>
       </c>
-      <c r="AI34" s="64">
+      <c r="AI34" s="63">
         <f>M31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ34" s="64">
+      <c r="AJ34" s="63">
         <f>M44</f>
         <v>281.25</v>
       </c>
-      <c r="AK34" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="64">
+      <c r="AK34" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="63">
         <f>M57</f>
         <v>0</v>
       </c>
-      <c r="AM34" s="64">
+      <c r="AM34" s="63">
         <f>M70</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="35" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="76"/>
+    <row r="35" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="75"/>
       <c r="C35" s="19">
         <f t="shared" si="58"/>
         <v>-93.75</v>
@@ -9274,87 +9280,87 @@
         <f t="shared" si="68"/>
         <v>-93.75</v>
       </c>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="72">
+      <c r="Q35" s="75"/>
+      <c r="R35" s="71">
         <f t="shared" ref="R35:AB35" si="77">S35</f>
         <v>-2</v>
       </c>
-      <c r="S35" s="73">
+      <c r="S35" s="72">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="T35" s="74">
+      <c r="T35" s="73">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="U35" s="75">
+      <c r="U35" s="74">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="V35" s="72">
+      <c r="V35" s="71">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="W35" s="73">
+      <c r="W35" s="72">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="X35" s="74">
+      <c r="X35" s="73">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="Y35" s="75">
+      <c r="Y35" s="74">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="Z35" s="72">
+      <c r="Z35" s="71">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="AA35" s="73">
+      <c r="AA35" s="72">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="AB35" s="74">
+      <c r="AB35" s="73">
         <f t="shared" si="77"/>
         <v>-2</v>
       </c>
-      <c r="AC35" s="75">
+      <c r="AC35" s="74">
         <f>-AC32</f>
         <v>-2</v>
       </c>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64">
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63">
         <f>N5</f>
         <v>13</v>
       </c>
-      <c r="AH35" s="64">
+      <c r="AH35" s="63">
         <f>N18</f>
         <v>4</v>
       </c>
-      <c r="AI35" s="64">
+      <c r="AI35" s="63">
         <f>N31</f>
         <v>156.25</v>
       </c>
-      <c r="AJ35" s="64">
+      <c r="AJ35" s="63">
         <f>N44</f>
         <v>343.75</v>
       </c>
-      <c r="AK35" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="64">
+      <c r="AK35" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="63">
         <f>N57</f>
         <v>0</v>
       </c>
-      <c r="AM35" s="64">
+      <c r="AM35" s="63">
         <f>N70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B36" s="76"/>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B36" s="75"/>
       <c r="C36" s="18">
         <f t="shared" si="58"/>
         <v>-156.25</v>
@@ -9403,8 +9409,8 @@
         <f t="shared" si="68"/>
         <v>-156.25</v>
       </c>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="71">
+      <c r="Q36" s="75"/>
+      <c r="R36" s="70">
         <f t="shared" ref="R36:AB36" si="78">S36</f>
         <v>-3</v>
       </c>
@@ -9420,7 +9426,7 @@
         <f t="shared" si="78"/>
         <v>-3</v>
       </c>
-      <c r="V36" s="71">
+      <c r="V36" s="70">
         <f t="shared" si="78"/>
         <v>-3</v>
       </c>
@@ -9436,7 +9442,7 @@
         <f t="shared" si="78"/>
         <v>-3</v>
       </c>
-      <c r="Z36" s="71">
+      <c r="Z36" s="70">
         <f t="shared" si="78"/>
         <v>-3</v>
       </c>
@@ -9452,38 +9458,38 @@
         <f>-AC31</f>
         <v>-3</v>
       </c>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64">
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="63">
         <f>N4</f>
         <v>13</v>
       </c>
-      <c r="AH36" s="64">
+      <c r="AH36" s="63">
         <f>N17</f>
         <v>5</v>
       </c>
-      <c r="AI36" s="64">
+      <c r="AI36" s="63">
         <f>N30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ36" s="64">
+      <c r="AJ36" s="63">
         <f>N43</f>
         <v>343.75</v>
       </c>
-      <c r="AK36" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="64">
+      <c r="AK36" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="63">
         <f>N56</f>
         <v>0</v>
       </c>
-      <c r="AM36" s="64">
+      <c r="AM36" s="63">
         <f>N69</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B37" s="76"/>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B37" s="75"/>
       <c r="C37" s="6">
         <f t="shared" si="58"/>
         <v>-218.75</v>
@@ -9532,12 +9538,12 @@
         <f t="shared" si="68"/>
         <v>-218.75</v>
       </c>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="65">
+      <c r="Q37" s="75"/>
+      <c r="R37" s="64">
         <f t="shared" ref="R37:AB37" si="79">S37</f>
         <v>-4</v>
       </c>
-      <c r="S37" s="66">
+      <c r="S37" s="65">
         <f t="shared" si="79"/>
         <v>-4</v>
       </c>
@@ -9549,11 +9555,11 @@
         <f t="shared" si="79"/>
         <v>-4</v>
       </c>
-      <c r="V37" s="65">
+      <c r="V37" s="64">
         <f t="shared" si="79"/>
         <v>-4</v>
       </c>
-      <c r="W37" s="66">
+      <c r="W37" s="65">
         <f t="shared" si="79"/>
         <v>-4</v>
       </c>
@@ -9565,11 +9571,11 @@
         <f t="shared" si="79"/>
         <v>-4</v>
       </c>
-      <c r="Z37" s="65">
+      <c r="Z37" s="64">
         <f t="shared" si="79"/>
         <v>-4</v>
       </c>
-      <c r="AA37" s="66">
+      <c r="AA37" s="65">
         <f t="shared" si="79"/>
         <v>-4</v>
       </c>
@@ -9581,38 +9587,38 @@
         <f>-AC30</f>
         <v>-4</v>
       </c>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64">
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63">
         <f>M4</f>
         <v>13</v>
       </c>
-      <c r="AH37" s="64">
+      <c r="AH37" s="63">
         <f>M17</f>
         <v>6</v>
       </c>
-      <c r="AI37" s="64">
+      <c r="AI37" s="63">
         <f>M30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ37" s="64">
+      <c r="AJ37" s="63">
         <f>M43</f>
         <v>281.25</v>
       </c>
-      <c r="AK37" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="64">
+      <c r="AK37" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="63">
         <f>M56</f>
         <v>0</v>
       </c>
-      <c r="AM37" s="64">
+      <c r="AM37" s="63">
         <f>M69</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B38" s="76"/>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B38" s="75"/>
       <c r="C38" s="10">
         <f t="shared" si="58"/>
         <v>-281.25</v>
@@ -9661,12 +9667,12 @@
         <f t="shared" si="68"/>
         <v>-281.25</v>
       </c>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="67">
+      <c r="Q38" s="75"/>
+      <c r="R38" s="66">
         <f t="shared" ref="R38:AB38" si="80">S38</f>
         <v>-5</v>
       </c>
-      <c r="S38" s="68">
+      <c r="S38" s="67">
         <f t="shared" si="80"/>
         <v>-5</v>
       </c>
@@ -9678,11 +9684,11 @@
         <f t="shared" si="80"/>
         <v>-5</v>
       </c>
-      <c r="V38" s="67">
+      <c r="V38" s="66">
         <f t="shared" si="80"/>
         <v>-5</v>
       </c>
-      <c r="W38" s="68">
+      <c r="W38" s="67">
         <f t="shared" si="80"/>
         <v>-5</v>
       </c>
@@ -9694,11 +9700,11 @@
         <f t="shared" si="80"/>
         <v>-5</v>
       </c>
-      <c r="Z38" s="67">
+      <c r="Z38" s="66">
         <f t="shared" si="80"/>
         <v>-5</v>
       </c>
-      <c r="AA38" s="68">
+      <c r="AA38" s="67">
         <f t="shared" si="80"/>
         <v>-5</v>
       </c>
@@ -9710,38 +9716,38 @@
         <f>-AC29</f>
         <v>-5</v>
       </c>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64">
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
+      <c r="AG38" s="63">
         <f>L4</f>
         <v>13</v>
       </c>
-      <c r="AH38" s="64">
+      <c r="AH38" s="63">
         <f>L17</f>
         <v>7</v>
       </c>
-      <c r="AI38" s="64">
+      <c r="AI38" s="63">
         <f>L30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ38" s="64">
+      <c r="AJ38" s="63">
         <f>L43</f>
         <v>218.75</v>
       </c>
-      <c r="AK38" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="64">
+      <c r="AK38" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="63">
         <f>L56</f>
         <v>0</v>
       </c>
-      <c r="AM38" s="64">
+      <c r="AM38" s="63">
         <f>L69</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="39" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="76"/>
+    <row r="39" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="75"/>
       <c r="C39" s="19">
         <f t="shared" si="58"/>
         <v>-343.75</v>
@@ -9790,118 +9796,118 @@
         <f t="shared" si="68"/>
         <v>-343.75</v>
       </c>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="72">
+      <c r="Q39" s="75"/>
+      <c r="R39" s="71">
         <f t="shared" ref="R39:AB39" si="81">S39</f>
         <v>-6</v>
       </c>
-      <c r="S39" s="73">
+      <c r="S39" s="72">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="T39" s="74">
+      <c r="T39" s="73">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="U39" s="75">
+      <c r="U39" s="74">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="V39" s="72">
+      <c r="V39" s="71">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="W39" s="73">
+      <c r="W39" s="72">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="X39" s="74">
+      <c r="X39" s="73">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="Y39" s="75">
+      <c r="Y39" s="74">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="Z39" s="72">
+      <c r="Z39" s="71">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="AA39" s="73">
+      <c r="AA39" s="72">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="AB39" s="74">
+      <c r="AB39" s="73">
         <f t="shared" si="81"/>
         <v>-6</v>
       </c>
-      <c r="AC39" s="75">
+      <c r="AC39" s="74">
         <f>-AC28</f>
         <v>-6</v>
       </c>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="64">
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="63">
         <f>K4</f>
         <v>13</v>
       </c>
-      <c r="AH39" s="64">
+      <c r="AH39" s="63">
         <f>K17</f>
         <v>8</v>
       </c>
-      <c r="AI39" s="64">
+      <c r="AI39" s="63">
         <f>K30</f>
         <v>218.75</v>
       </c>
-      <c r="AJ39" s="64">
+      <c r="AJ39" s="63">
         <f>K43</f>
         <v>156.25</v>
       </c>
-      <c r="AK39" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="64">
+      <c r="AK39" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="63">
         <f>K56</f>
         <v>0</v>
       </c>
-      <c r="AM39" s="64">
+      <c r="AM39" s="63">
         <f>K69</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="40" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64">
+    <row r="40" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63">
         <f>K3</f>
         <v>13</v>
       </c>
-      <c r="AH40" s="64">
+      <c r="AH40" s="63">
         <f>K16</f>
         <v>9</v>
       </c>
-      <c r="AI40" s="64">
+      <c r="AI40" s="63">
         <f>K29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ40" s="64">
+      <c r="AJ40" s="63">
         <f>K42</f>
         <v>156.25</v>
       </c>
-      <c r="AK40" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="64">
+      <c r="AK40" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="63">
         <f>K55</f>
         <v>0</v>
       </c>
-      <c r="AM40" s="64">
+      <c r="AM40" s="63">
         <f>K68</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B41" s="76" t="s">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B41" s="75" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2">
@@ -9955,7 +9961,7 @@
       <c r="P41" t="s">
         <v>11</v>
       </c>
-      <c r="Q41" s="76" t="s">
+      <c r="Q41" s="75" t="s">
         <v>9</v>
       </c>
       <c r="R41" s="44">
@@ -10000,38 +10006,38 @@
       <c r="AC41" s="26">
         <v>6</v>
       </c>
-      <c r="AE41" s="64"/>
-      <c r="AF41" s="64"/>
-      <c r="AG41" s="64">
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63">
         <f>L3</f>
         <v>13</v>
       </c>
-      <c r="AH41" s="64">
+      <c r="AH41" s="63">
         <f>L16</f>
         <v>10</v>
       </c>
-      <c r="AI41" s="64">
+      <c r="AI41" s="63">
         <f>L29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ41" s="64">
+      <c r="AJ41" s="63">
         <f>L42</f>
         <v>218.75</v>
       </c>
-      <c r="AK41" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="64">
+      <c r="AK41" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="63">
         <f>L55</f>
         <v>0</v>
       </c>
-      <c r="AM41" s="64">
+      <c r="AM41" s="63">
         <f>L68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B42" s="76"/>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B42" s="75"/>
       <c r="C42" s="6">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -10084,12 +10090,12 @@
         <f>2*P43</f>
         <v>62.5</v>
       </c>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="65">
+      <c r="Q42" s="75"/>
+      <c r="R42" s="64">
         <f>R41</f>
         <v>-6</v>
       </c>
-      <c r="S42" s="66">
+      <c r="S42" s="65">
         <f t="shared" ref="S42:S52" si="94">S41</f>
         <v>-5</v>
       </c>
@@ -10101,11 +10107,11 @@
         <f t="shared" ref="U42:U52" si="96">U41</f>
         <v>-3</v>
       </c>
-      <c r="V42" s="65">
+      <c r="V42" s="64">
         <f t="shared" ref="V42:V52" si="97">V41</f>
         <v>-2</v>
       </c>
-      <c r="W42" s="66">
+      <c r="W42" s="65">
         <f t="shared" ref="W42:W52" si="98">W41</f>
         <v>-1</v>
       </c>
@@ -10117,11 +10123,11 @@
         <f t="shared" ref="Y42:Y52" si="100">Y41</f>
         <v>2</v>
       </c>
-      <c r="Z42" s="65">
+      <c r="Z42" s="64">
         <f t="shared" ref="Z42:Z52" si="101">Z41</f>
         <v>3</v>
       </c>
-      <c r="AA42" s="66">
+      <c r="AA42" s="65">
         <f t="shared" ref="AA42:AA52" si="102">AA41</f>
         <v>4</v>
       </c>
@@ -10133,45 +10139,45 @@
         <f t="shared" ref="AC42:AC52" si="104">AC41</f>
         <v>6</v>
       </c>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="64">
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63">
         <f>M3</f>
         <v>13</v>
       </c>
-      <c r="AH42" s="64">
+      <c r="AH42" s="63">
         <f>M16</f>
         <v>11</v>
       </c>
-      <c r="AI42" s="64">
+      <c r="AI42" s="63">
         <f>M29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ42" s="64">
+      <c r="AJ42" s="63">
         <f>M42</f>
         <v>281.25</v>
       </c>
-      <c r="AK42" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="64">
+      <c r="AK42" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="63">
         <f>M55</f>
         <v>0</v>
       </c>
-      <c r="AM42" s="64">
+      <c r="AM42" s="63">
         <f>M68</f>
         <v>-90</v>
       </c>
-      <c r="AN42" s="63"/>
-      <c r="AO42" s="63"/>
-      <c r="AP42" s="63"/>
-      <c r="AQ42" s="63"/>
-      <c r="AR42" s="63"/>
-      <c r="AS42" s="63"/>
-      <c r="AT42" s="63"/>
-    </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B43" s="76"/>
+      <c r="AN42" s="58"/>
+      <c r="AO42" s="58"/>
+      <c r="AP42" s="58"/>
+      <c r="AQ42" s="58"/>
+      <c r="AR42" s="58"/>
+      <c r="AS42" s="58"/>
+      <c r="AT42" s="58"/>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B43" s="75"/>
       <c r="C43" s="10">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -10223,12 +10229,12 @@
       <c r="P43">
         <v>31.25</v>
       </c>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="67">
+      <c r="Q43" s="75"/>
+      <c r="R43" s="66">
         <f t="shared" ref="R43:R52" si="105">R42</f>
         <v>-6</v>
       </c>
-      <c r="S43" s="68">
+      <c r="S43" s="67">
         <f t="shared" si="94"/>
         <v>-5</v>
       </c>
@@ -10240,11 +10246,11 @@
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V43" s="67">
+      <c r="V43" s="66">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
-      <c r="W43" s="68">
+      <c r="W43" s="67">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
@@ -10256,11 +10262,11 @@
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z43" s="67">
+      <c r="Z43" s="66">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
-      <c r="AA43" s="68">
+      <c r="AA43" s="67">
         <f t="shared" si="102"/>
         <v>4</v>
       </c>
@@ -10272,38 +10278,38 @@
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE43" s="64"/>
-      <c r="AF43" s="64"/>
-      <c r="AG43" s="64">
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63">
         <f>N3</f>
         <v>13</v>
       </c>
-      <c r="AH43" s="64">
+      <c r="AH43" s="63">
         <f>N16</f>
         <v>12</v>
       </c>
-      <c r="AI43" s="64">
+      <c r="AI43" s="63">
         <f>N29</f>
         <v>281.25</v>
       </c>
-      <c r="AJ43" s="64">
+      <c r="AJ43" s="63">
         <f>N42</f>
         <v>343.75</v>
       </c>
-      <c r="AK43" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="64">
+      <c r="AK43" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="63">
         <f>N55</f>
         <v>0</v>
       </c>
-      <c r="AM43" s="64">
+      <c r="AM43" s="63">
         <f>N68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="76"/>
+    <row r="44" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="75"/>
       <c r="C44" s="14">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -10352,12 +10358,12 @@
         <f t="shared" si="93"/>
         <v>343.75</v>
       </c>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="69">
+      <c r="Q44" s="75"/>
+      <c r="R44" s="68">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
-      <c r="S44" s="70">
+      <c r="S44" s="69">
         <f t="shared" si="94"/>
         <v>-5</v>
       </c>
@@ -10369,11 +10375,11 @@
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V44" s="69">
+      <c r="V44" s="68">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
-      <c r="W44" s="70">
+      <c r="W44" s="69">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
@@ -10385,11 +10391,11 @@
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z44" s="69">
+      <c r="Z44" s="68">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
-      <c r="AA44" s="70">
+      <c r="AA44" s="69">
         <f t="shared" si="102"/>
         <v>4</v>
       </c>
@@ -10401,38 +10407,38 @@
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE44" s="63"/>
-      <c r="AF44" s="63"/>
-      <c r="AG44" s="63">
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58">
         <f>N2</f>
         <v>13</v>
       </c>
-      <c r="AH44" s="63">
+      <c r="AH44" s="58">
         <f>N15</f>
         <v>13</v>
       </c>
-      <c r="AI44" s="63">
+      <c r="AI44" s="58">
         <f>N28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ44" s="63">
+      <c r="AJ44" s="58">
         <f>N41</f>
         <v>343.75</v>
       </c>
-      <c r="AK44" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="63">
+      <c r="AK44" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="58">
         <f>N54</f>
         <v>0</v>
       </c>
-      <c r="AM44" s="63">
+      <c r="AM44" s="58">
         <f>N67</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B45" s="76"/>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B45" s="75"/>
       <c r="C45" s="18">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -10481,8 +10487,8 @@
         <f t="shared" si="93"/>
         <v>343.75</v>
       </c>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="71">
+      <c r="Q45" s="75"/>
+      <c r="R45" s="70">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
@@ -10498,7 +10504,7 @@
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V45" s="71">
+      <c r="V45" s="70">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
@@ -10514,7 +10520,7 @@
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z45" s="71">
+      <c r="Z45" s="70">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
@@ -10530,38 +10536,38 @@
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="63">
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58">
         <f>M2</f>
         <v>13</v>
       </c>
-      <c r="AH45" s="63">
+      <c r="AH45" s="58">
         <f>M15</f>
         <v>14</v>
       </c>
-      <c r="AI45" s="63">
+      <c r="AI45" s="58">
         <f>M28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ45" s="63">
+      <c r="AJ45" s="58">
         <f>M41</f>
         <v>281.25</v>
       </c>
-      <c r="AK45" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="63">
+      <c r="AK45" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="58">
         <f>M54</f>
         <v>0</v>
       </c>
-      <c r="AM45" s="63">
+      <c r="AM45" s="58">
         <f>M67</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B46" s="76"/>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B46" s="75"/>
       <c r="C46" s="6">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -10610,12 +10616,12 @@
         <f>SIGN(AC46)*$P$42*(ABS(AC46)-0.5)</f>
         <v>343.75</v>
       </c>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="65">
+      <c r="Q46" s="75"/>
+      <c r="R46" s="64">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
-      <c r="S46" s="66">
+      <c r="S46" s="65">
         <f t="shared" si="94"/>
         <v>-5</v>
       </c>
@@ -10627,11 +10633,11 @@
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V46" s="65">
+      <c r="V46" s="64">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
-      <c r="W46" s="66">
+      <c r="W46" s="65">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
@@ -10643,11 +10649,11 @@
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z46" s="65">
+      <c r="Z46" s="64">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
-      <c r="AA46" s="66">
+      <c r="AA46" s="65">
         <f t="shared" si="102"/>
         <v>4</v>
       </c>
@@ -10659,38 +10665,38 @@
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE46" s="63"/>
-      <c r="AF46" s="63"/>
-      <c r="AG46" s="63">
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58">
         <f>L2</f>
         <v>13</v>
       </c>
-      <c r="AH46" s="63">
+      <c r="AH46" s="58">
         <f>L15</f>
         <v>15</v>
       </c>
-      <c r="AI46" s="63">
+      <c r="AI46" s="58">
         <f>L28</f>
         <v>343.75</v>
       </c>
-      <c r="AJ46" s="63">
+      <c r="AJ46" s="58">
         <f>L41</f>
         <v>218.75</v>
       </c>
-      <c r="AK46" s="63">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="63">
+      <c r="AK46" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="58">
         <f>L54</f>
         <v>0</v>
       </c>
-      <c r="AM46" s="63">
+      <c r="AM46" s="58">
         <f>L67</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B47" s="76"/>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B47" s="75"/>
       <c r="C47" s="10">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -10739,12 +10745,12 @@
         <f t="shared" ref="N47:N52" si="106">SIGN(AC47)*$P$42*(ABS(AC47)-0.5)</f>
         <v>343.75</v>
       </c>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="67">
+      <c r="Q47" s="75"/>
+      <c r="R47" s="66">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
-      <c r="S47" s="68">
+      <c r="S47" s="67">
         <f t="shared" si="94"/>
         <v>-5</v>
       </c>
@@ -10756,11 +10762,11 @@
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V47" s="67">
+      <c r="V47" s="66">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
-      <c r="W47" s="68">
+      <c r="W47" s="67">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
@@ -10772,11 +10778,11 @@
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z47" s="67">
+      <c r="Z47" s="66">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
-      <c r="AA47" s="68">
+      <c r="AA47" s="67">
         <f t="shared" si="102"/>
         <v>4</v>
       </c>
@@ -10788,38 +10794,38 @@
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE47" s="64"/>
-      <c r="AF47" s="64"/>
-      <c r="AG47" s="64">
+      <c r="AE47" s="63"/>
+      <c r="AF47" s="63"/>
+      <c r="AG47" s="63">
         <f>F9</f>
         <v>21</v>
       </c>
-      <c r="AH47" s="64">
+      <c r="AH47" s="63">
         <f>F22</f>
         <v>1</v>
       </c>
-      <c r="AI47" s="64">
+      <c r="AI47" s="63">
         <f>F35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ47" s="64">
+      <c r="AJ47" s="63">
         <f>F48</f>
         <v>-156.25</v>
       </c>
-      <c r="AK47" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="64">
+      <c r="AK47" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="63">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="AM47" s="64">
+      <c r="AM47" s="63">
         <f>F74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="76"/>
+    <row r="48" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="75"/>
       <c r="C48" s="19">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -10868,87 +10874,87 @@
         <f t="shared" si="106"/>
         <v>343.75</v>
       </c>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="72">
+      <c r="Q48" s="75"/>
+      <c r="R48" s="71">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
-      <c r="S48" s="73">
+      <c r="S48" s="72">
         <f t="shared" si="94"/>
         <v>-5</v>
       </c>
-      <c r="T48" s="74">
+      <c r="T48" s="73">
         <f t="shared" si="95"/>
         <v>-4</v>
       </c>
-      <c r="U48" s="75">
+      <c r="U48" s="74">
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V48" s="72">
+      <c r="V48" s="71">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
-      <c r="W48" s="73">
+      <c r="W48" s="72">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
-      <c r="X48" s="74">
+      <c r="X48" s="73">
         <f t="shared" si="99"/>
         <v>1</v>
       </c>
-      <c r="Y48" s="75">
+      <c r="Y48" s="74">
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z48" s="72">
+      <c r="Z48" s="71">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
-      <c r="AA48" s="73">
+      <c r="AA48" s="72">
         <f t="shared" si="102"/>
         <v>4</v>
       </c>
-      <c r="AB48" s="74">
+      <c r="AB48" s="73">
         <f t="shared" si="103"/>
         <v>5</v>
       </c>
-      <c r="AC48" s="75">
+      <c r="AC48" s="74">
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE48" s="64"/>
-      <c r="AF48" s="64"/>
-      <c r="AG48" s="64">
+      <c r="AE48" s="63"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="63">
         <f>F8</f>
         <v>21</v>
       </c>
-      <c r="AH48" s="64">
+      <c r="AH48" s="63">
         <f>F21</f>
         <v>2</v>
       </c>
-      <c r="AI48" s="64">
+      <c r="AI48" s="63">
         <f>F34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ48" s="64">
+      <c r="AJ48" s="63">
         <f>F47</f>
         <v>-156.25</v>
       </c>
-      <c r="AK48" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="64">
+      <c r="AK48" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="63">
         <f>F60</f>
         <v>0</v>
       </c>
-      <c r="AM48" s="64">
+      <c r="AM48" s="63">
         <f>F73</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B49" s="76"/>
+    <row r="49" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B49" s="75"/>
       <c r="C49" s="18">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -10997,8 +11003,8 @@
         <f t="shared" si="106"/>
         <v>343.75</v>
       </c>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="71">
+      <c r="Q49" s="75"/>
+      <c r="R49" s="70">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
@@ -11014,7 +11020,7 @@
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V49" s="71">
+      <c r="V49" s="70">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
@@ -11030,7 +11036,7 @@
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z49" s="71">
+      <c r="Z49" s="70">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
@@ -11046,38 +11052,38 @@
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE49" s="64"/>
-      <c r="AF49" s="64"/>
-      <c r="AG49" s="64">
+      <c r="AE49" s="63"/>
+      <c r="AF49" s="63"/>
+      <c r="AG49" s="63">
         <f>F7</f>
         <v>21</v>
       </c>
-      <c r="AH49" s="64">
+      <c r="AH49" s="63">
         <f>F20</f>
         <v>3</v>
       </c>
-      <c r="AI49" s="64">
+      <c r="AI49" s="63">
         <f>F33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ49" s="64">
+      <c r="AJ49" s="63">
         <f>F46</f>
         <v>-156.25</v>
       </c>
-      <c r="AK49" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="64">
+      <c r="AK49" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="63">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="AM49" s="64">
+      <c r="AM49" s="63">
         <f>F72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B50" s="76"/>
+    <row r="50" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B50" s="75"/>
       <c r="C50" s="6">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -11126,12 +11132,12 @@
         <f t="shared" si="106"/>
         <v>343.75</v>
       </c>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="65">
+      <c r="Q50" s="75"/>
+      <c r="R50" s="64">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
-      <c r="S50" s="66">
+      <c r="S50" s="65">
         <f t="shared" si="94"/>
         <v>-5</v>
       </c>
@@ -11143,11 +11149,11 @@
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V50" s="65">
+      <c r="V50" s="64">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
-      <c r="W50" s="66">
+      <c r="W50" s="65">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
@@ -11159,11 +11165,11 @@
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z50" s="65">
+      <c r="Z50" s="64">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
-      <c r="AA50" s="66">
+      <c r="AA50" s="65">
         <f t="shared" si="102"/>
         <v>4</v>
       </c>
@@ -11175,38 +11181,38 @@
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE50" s="64"/>
-      <c r="AF50" s="64"/>
-      <c r="AG50" s="64">
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="63">
         <f>F6</f>
         <v>21</v>
       </c>
-      <c r="AH50" s="64">
+      <c r="AH50" s="63">
         <f>F19</f>
         <v>4</v>
       </c>
-      <c r="AI50" s="64">
+      <c r="AI50" s="63">
         <f>F32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ50" s="64">
+      <c r="AJ50" s="63">
         <f>F45</f>
         <v>-156.25</v>
       </c>
-      <c r="AK50" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="64">
+      <c r="AK50" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="63">
         <f>F58</f>
         <v>0</v>
       </c>
-      <c r="AM50" s="64">
+      <c r="AM50" s="63">
         <f>F71</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B51" s="76"/>
+    <row r="51" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B51" s="75"/>
       <c r="C51" s="10">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -11255,12 +11261,12 @@
         <f t="shared" si="106"/>
         <v>343.75</v>
       </c>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="67">
+      <c r="Q51" s="75"/>
+      <c r="R51" s="66">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
-      <c r="S51" s="68">
+      <c r="S51" s="67">
         <f t="shared" si="94"/>
         <v>-5</v>
       </c>
@@ -11272,11 +11278,11 @@
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V51" s="67">
+      <c r="V51" s="66">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
-      <c r="W51" s="68">
+      <c r="W51" s="67">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
@@ -11288,11 +11294,11 @@
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z51" s="67">
+      <c r="Z51" s="66">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
-      <c r="AA51" s="68">
+      <c r="AA51" s="67">
         <f t="shared" si="102"/>
         <v>4</v>
       </c>
@@ -11304,38 +11310,38 @@
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="64"/>
-      <c r="AG51" s="64">
+      <c r="AE51" s="63"/>
+      <c r="AF51" s="63"/>
+      <c r="AG51" s="63">
         <f>E6</f>
         <v>21</v>
       </c>
-      <c r="AH51" s="64">
+      <c r="AH51" s="63">
         <f>E19</f>
         <v>5</v>
       </c>
-      <c r="AI51" s="64">
+      <c r="AI51" s="63">
         <f>E32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ51" s="64">
+      <c r="AJ51" s="63">
         <f>E45</f>
         <v>-218.75</v>
       </c>
-      <c r="AK51" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="64">
+      <c r="AK51" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="63">
         <f>E58</f>
         <v>0</v>
       </c>
-      <c r="AM51" s="64">
+      <c r="AM51" s="63">
         <f>E71</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="52" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="76"/>
+    <row r="52" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="75"/>
       <c r="C52" s="19">
         <f t="shared" si="82"/>
         <v>-343.75</v>
@@ -11384,118 +11390,118 @@
         <f t="shared" si="106"/>
         <v>343.75</v>
       </c>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="72">
+      <c r="Q52" s="75"/>
+      <c r="R52" s="71">
         <f t="shared" si="105"/>
         <v>-6</v>
       </c>
-      <c r="S52" s="73">
+      <c r="S52" s="72">
         <f t="shared" si="94"/>
         <v>-5</v>
       </c>
-      <c r="T52" s="74">
+      <c r="T52" s="73">
         <f t="shared" si="95"/>
         <v>-4</v>
       </c>
-      <c r="U52" s="75">
+      <c r="U52" s="74">
         <f t="shared" si="96"/>
         <v>-3</v>
       </c>
-      <c r="V52" s="72">
+      <c r="V52" s="71">
         <f t="shared" si="97"/>
         <v>-2</v>
       </c>
-      <c r="W52" s="73">
+      <c r="W52" s="72">
         <f t="shared" si="98"/>
         <v>-1</v>
       </c>
-      <c r="X52" s="74">
+      <c r="X52" s="73">
         <f t="shared" si="99"/>
         <v>1</v>
       </c>
-      <c r="Y52" s="75">
+      <c r="Y52" s="74">
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="Z52" s="72">
+      <c r="Z52" s="71">
         <f t="shared" si="101"/>
         <v>3</v>
       </c>
-      <c r="AA52" s="73">
+      <c r="AA52" s="72">
         <f t="shared" si="102"/>
         <v>4</v>
       </c>
-      <c r="AB52" s="74">
+      <c r="AB52" s="73">
         <f t="shared" si="103"/>
         <v>5</v>
       </c>
-      <c r="AC52" s="75">
+      <c r="AC52" s="74">
         <f t="shared" si="104"/>
         <v>6</v>
       </c>
-      <c r="AE52" s="64"/>
-      <c r="AF52" s="64"/>
-      <c r="AG52" s="64">
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="63"/>
+      <c r="AG52" s="63">
         <f>E7</f>
         <v>21</v>
       </c>
-      <c r="AH52" s="64">
+      <c r="AH52" s="63">
         <f>E20</f>
         <v>6</v>
       </c>
-      <c r="AI52" s="64">
+      <c r="AI52" s="63">
         <f>E33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ52" s="64">
+      <c r="AJ52" s="63">
         <f>E46</f>
         <v>-218.75</v>
       </c>
-      <c r="AK52" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="64">
+      <c r="AK52" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="63">
         <f>E59</f>
         <v>0</v>
       </c>
-      <c r="AM52" s="64">
+      <c r="AM52" s="63">
         <f>E72</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="53" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AE53" s="64"/>
-      <c r="AF53" s="64"/>
-      <c r="AG53" s="64">
+    <row r="53" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE53" s="63"/>
+      <c r="AF53" s="63"/>
+      <c r="AG53" s="63">
         <f>E8</f>
         <v>21</v>
       </c>
-      <c r="AH53" s="64">
+      <c r="AH53" s="63">
         <f>E21</f>
         <v>7</v>
       </c>
-      <c r="AI53" s="64">
+      <c r="AI53" s="63">
         <f>E34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ53" s="64">
+      <c r="AJ53" s="63">
         <f>E47</f>
         <v>-218.75</v>
       </c>
-      <c r="AK53" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="64">
+      <c r="AK53" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="63">
         <f>E60</f>
         <v>0</v>
       </c>
-      <c r="AM53" s="64">
+      <c r="AM53" s="63">
         <f>E73</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B54" s="76" t="s">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B54" s="75" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="2">
@@ -11546,38 +11552,38 @@
         <f t="shared" ref="N54:N65" si="117">$P$42*AC54</f>
         <v>0</v>
       </c>
-      <c r="AE54" s="64"/>
-      <c r="AF54" s="64"/>
-      <c r="AG54" s="64">
+      <c r="AE54" s="63"/>
+      <c r="AF54" s="63"/>
+      <c r="AG54" s="63">
         <f>E9</f>
         <v>21</v>
       </c>
-      <c r="AH54" s="64">
+      <c r="AH54" s="63">
         <f>E22</f>
         <v>8</v>
       </c>
-      <c r="AI54" s="64">
+      <c r="AI54" s="63">
         <f>E35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ54" s="64">
+      <c r="AJ54" s="63">
         <f>E48</f>
         <v>-218.75</v>
       </c>
-      <c r="AK54" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="64">
+      <c r="AK54" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="63">
         <f>E61</f>
         <v>0</v>
       </c>
-      <c r="AM54" s="64">
+      <c r="AM54" s="63">
         <f>E74</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="55" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B55" s="76"/>
+    <row r="55" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B55" s="75"/>
       <c r="C55" s="6">
         <f t="shared" ref="C55:C65" si="118">$P$42*R55</f>
         <v>0</v>
@@ -11626,45 +11632,45 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="64"/>
-      <c r="AF55" s="64"/>
-      <c r="AG55" s="64">
+      <c r="AE55" s="63"/>
+      <c r="AF55" s="63"/>
+      <c r="AG55" s="63">
         <f>D9</f>
         <v>21</v>
       </c>
-      <c r="AH55" s="64">
+      <c r="AH55" s="63">
         <f>D22</f>
         <v>9</v>
       </c>
-      <c r="AI55" s="64">
+      <c r="AI55" s="63">
         <f>D35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ55" s="64">
+      <c r="AJ55" s="63">
         <f>D48</f>
         <v>-281.25</v>
       </c>
-      <c r="AK55" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL55" s="64">
+      <c r="AK55" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="63">
         <f>D61</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="64">
+      <c r="AM55" s="63">
         <f>D74</f>
         <v>0</v>
       </c>
-      <c r="AN55" s="63"/>
-      <c r="AO55" s="63"/>
-      <c r="AP55" s="63"/>
-      <c r="AQ55" s="63"/>
-      <c r="AR55" s="63"/>
-      <c r="AS55" s="63"/>
-      <c r="AT55" s="63"/>
-    </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B56" s="76"/>
+      <c r="AN55" s="58"/>
+      <c r="AO55" s="58"/>
+      <c r="AP55" s="58"/>
+      <c r="AQ55" s="58"/>
+      <c r="AR55" s="58"/>
+      <c r="AS55" s="58"/>
+      <c r="AT55" s="58"/>
+    </row>
+    <row r="56" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B56" s="75"/>
       <c r="C56" s="10">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -11713,38 +11719,38 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE56" s="64"/>
-      <c r="AF56" s="64"/>
-      <c r="AG56" s="64">
+      <c r="AE56" s="63"/>
+      <c r="AF56" s="63"/>
+      <c r="AG56" s="63">
         <f>D8</f>
         <v>21</v>
       </c>
-      <c r="AH56" s="64">
+      <c r="AH56" s="63">
         <f>D21</f>
         <v>10</v>
       </c>
-      <c r="AI56" s="64">
+      <c r="AI56" s="63">
         <f>D34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ56" s="64">
+      <c r="AJ56" s="63">
         <f>D47</f>
         <v>-281.25</v>
       </c>
-      <c r="AK56" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL56" s="64">
+      <c r="AK56" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="63">
         <f>D60</f>
         <v>0</v>
       </c>
-      <c r="AM56" s="64">
+      <c r="AM56" s="63">
         <f>D73</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="57" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="76"/>
+    <row r="57" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="75"/>
       <c r="C57" s="14">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -11793,38 +11799,38 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE57" s="64"/>
-      <c r="AF57" s="64"/>
-      <c r="AG57" s="64">
+      <c r="AE57" s="63"/>
+      <c r="AF57" s="63"/>
+      <c r="AG57" s="63">
         <f>D7</f>
         <v>21</v>
       </c>
-      <c r="AH57" s="64">
+      <c r="AH57" s="63">
         <f>D20</f>
         <v>11</v>
       </c>
-      <c r="AI57" s="64">
+      <c r="AI57" s="63">
         <f>D33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ57" s="64">
+      <c r="AJ57" s="63">
         <f>D46</f>
         <v>-281.25</v>
       </c>
-      <c r="AK57" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="64">
+      <c r="AK57" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="63">
         <f>D59</f>
         <v>0</v>
       </c>
-      <c r="AM57" s="64">
+      <c r="AM57" s="63">
         <f>D72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B58" s="76"/>
+    <row r="58" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B58" s="75"/>
       <c r="C58" s="18">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -11873,38 +11879,38 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE58" s="64"/>
-      <c r="AF58" s="64"/>
-      <c r="AG58" s="64">
+      <c r="AE58" s="63"/>
+      <c r="AF58" s="63"/>
+      <c r="AG58" s="63">
         <f>D6</f>
         <v>21</v>
       </c>
-      <c r="AH58" s="64">
+      <c r="AH58" s="63">
         <f>D19</f>
         <v>12</v>
       </c>
-      <c r="AI58" s="64">
+      <c r="AI58" s="63">
         <f>D32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ58" s="64">
+      <c r="AJ58" s="63">
         <f>D45</f>
         <v>-281.25</v>
       </c>
-      <c r="AK58" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL58" s="64">
+      <c r="AK58" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="63">
         <f>D58</f>
         <v>0</v>
       </c>
-      <c r="AM58" s="64">
+      <c r="AM58" s="63">
         <f>D71</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B59" s="76"/>
+    <row r="59" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B59" s="75"/>
       <c r="C59" s="6">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -11981,8 +11987,8 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B60" s="76"/>
+    <row r="60" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B60" s="75"/>
       <c r="C60" s="10">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -12059,8 +12065,8 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="61" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="76"/>
+    <row r="61" spans="2:46" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="75"/>
       <c r="C61" s="19">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -12137,8 +12143,8 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="62" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B62" s="76"/>
+    <row r="62" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B62" s="75"/>
       <c r="C62" s="18">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -12187,38 +12193,38 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE62" s="64"/>
-      <c r="AF62" s="64"/>
-      <c r="AG62" s="64">
+      <c r="AE62" s="63"/>
+      <c r="AF62" s="63"/>
+      <c r="AG62" s="63">
         <f>J9</f>
         <v>22</v>
       </c>
-      <c r="AH62" s="64">
+      <c r="AH62" s="63">
         <f>J22</f>
         <v>1</v>
       </c>
-      <c r="AI62" s="64">
+      <c r="AI62" s="63">
         <f>J35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ62" s="64">
+      <c r="AJ62" s="63">
         <f>J48</f>
         <v>93.75</v>
       </c>
-      <c r="AK62" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL62" s="64">
+      <c r="AK62" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="63">
         <f>J61</f>
         <v>0</v>
       </c>
-      <c r="AM62" s="64">
+      <c r="AM62" s="63">
         <f>J74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B63" s="76"/>
+    <row r="63" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B63" s="75"/>
       <c r="C63" s="6">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -12267,38 +12273,38 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE63" s="64"/>
-      <c r="AF63" s="64"/>
-      <c r="AG63" s="64">
+      <c r="AE63" s="63"/>
+      <c r="AF63" s="63"/>
+      <c r="AG63" s="63">
         <f>J8</f>
         <v>22</v>
       </c>
-      <c r="AH63" s="64">
+      <c r="AH63" s="63">
         <f>J21</f>
         <v>2</v>
       </c>
-      <c r="AI63" s="64">
+      <c r="AI63" s="63">
         <f>J34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ63" s="64">
+      <c r="AJ63" s="63">
         <f>J47</f>
         <v>93.75</v>
       </c>
-      <c r="AK63" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL63" s="64">
+      <c r="AK63" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="63">
         <f>J60</f>
         <v>0</v>
       </c>
-      <c r="AM63" s="64">
+      <c r="AM63" s="63">
         <f>J73</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="64" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B64" s="76"/>
+    <row r="64" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="B64" s="75"/>
       <c r="C64" s="10">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -12347,38 +12353,38 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE64" s="64"/>
-      <c r="AF64" s="64"/>
-      <c r="AG64" s="64">
+      <c r="AE64" s="63"/>
+      <c r="AF64" s="63"/>
+      <c r="AG64" s="63">
         <f>J7</f>
         <v>22</v>
       </c>
-      <c r="AH64" s="64">
+      <c r="AH64" s="63">
         <f>J20</f>
         <v>3</v>
       </c>
-      <c r="AI64" s="64">
+      <c r="AI64" s="63">
         <f>J33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ64" s="64">
+      <c r="AJ64" s="63">
         <f>J46</f>
         <v>93.75</v>
       </c>
-      <c r="AK64" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="64">
+      <c r="AK64" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="63">
         <f>J59</f>
         <v>0</v>
       </c>
-      <c r="AM64" s="64">
+      <c r="AM64" s="63">
         <f>J72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="76"/>
+    <row r="65" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="75"/>
       <c r="C65" s="19">
         <f t="shared" si="118"/>
         <v>0</v>
@@ -12427,69 +12433,69 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE65" s="64"/>
-      <c r="AF65" s="64"/>
-      <c r="AG65" s="64">
+      <c r="AE65" s="63"/>
+      <c r="AF65" s="63"/>
+      <c r="AG65" s="63">
         <f>J6</f>
         <v>22</v>
       </c>
-      <c r="AH65" s="64">
+      <c r="AH65" s="63">
         <f>J19</f>
         <v>4</v>
       </c>
-      <c r="AI65" s="64">
+      <c r="AI65" s="63">
         <f>J32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ65" s="64">
+      <c r="AJ65" s="63">
         <f>J45</f>
         <v>93.75</v>
       </c>
-      <c r="AK65" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="64">
+      <c r="AK65" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="63">
         <f>J58</f>
         <v>0</v>
       </c>
-      <c r="AM65" s="64">
+      <c r="AM65" s="63">
         <f>J71</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="66" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AE66" s="64"/>
-      <c r="AF66" s="64"/>
-      <c r="AG66" s="64">
+    <row r="66" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE66" s="63"/>
+      <c r="AF66" s="63"/>
+      <c r="AG66" s="63">
         <f>I6</f>
         <v>22</v>
       </c>
-      <c r="AH66" s="64">
+      <c r="AH66" s="63">
         <f>I19</f>
         <v>5</v>
       </c>
-      <c r="AI66" s="64">
+      <c r="AI66" s="63">
         <f>I32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ66" s="64">
+      <c r="AJ66" s="63">
         <f>I45</f>
         <v>31.25</v>
       </c>
-      <c r="AK66" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL66" s="64">
+      <c r="AK66" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="63">
         <f>I58</f>
         <v>0</v>
       </c>
-      <c r="AM66" s="64">
+      <c r="AM66" s="63">
         <f>I71</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="67" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B67" s="76" t="s">
+    <row r="67" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B67" s="75" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="2">
@@ -12540,7 +12546,7 @@
         <f t="shared" ref="N67:N77" si="130">-AC67</f>
         <v>-270</v>
       </c>
-      <c r="Q67" s="76" t="s">
+      <c r="Q67" s="75" t="s">
         <v>12</v>
       </c>
       <c r="R67" s="2">
@@ -12589,38 +12595,38 @@
       <c r="AC67" s="26">
         <v>270</v>
       </c>
-      <c r="AE67" s="64"/>
-      <c r="AF67" s="64"/>
-      <c r="AG67" s="64">
+      <c r="AE67" s="63"/>
+      <c r="AF67" s="63"/>
+      <c r="AG67" s="63">
         <f>I7</f>
         <v>22</v>
       </c>
-      <c r="AH67" s="64">
+      <c r="AH67" s="63">
         <f>I20</f>
         <v>6</v>
       </c>
-      <c r="AI67" s="64">
+      <c r="AI67" s="63">
         <f>I33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ67" s="64">
+      <c r="AJ67" s="63">
         <f>I46</f>
         <v>31.25</v>
       </c>
-      <c r="AK67" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL67" s="64">
+      <c r="AK67" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="63">
         <f>I59</f>
         <v>0</v>
       </c>
-      <c r="AM67" s="64">
+      <c r="AM67" s="63">
         <f>I72</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="68" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B68" s="76"/>
+    <row r="68" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B68" s="75"/>
       <c r="C68" s="6">
         <f t="shared" si="119"/>
         <v>-90</v>
@@ -12669,7 +12675,7 @@
         <f t="shared" si="130"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="76"/>
+      <c r="Q68" s="75"/>
       <c r="R68" s="6">
         <f t="shared" ref="R68" si="141">$AB$68</f>
         <v>90</v>
@@ -12717,38 +12723,38 @@
         <f t="shared" ref="AC68" si="151">$P$42*AR68</f>
         <v>0</v>
       </c>
-      <c r="AE68" s="64"/>
-      <c r="AF68" s="64"/>
-      <c r="AG68" s="64">
+      <c r="AE68" s="63"/>
+      <c r="AF68" s="63"/>
+      <c r="AG68" s="63">
         <f>I8</f>
         <v>22</v>
       </c>
-      <c r="AH68" s="64">
+      <c r="AH68" s="63">
         <f>I21</f>
         <v>7</v>
       </c>
-      <c r="AI68" s="64">
+      <c r="AI68" s="63">
         <f>I34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ68" s="64">
+      <c r="AJ68" s="63">
         <f>I47</f>
         <v>31.25</v>
       </c>
-      <c r="AK68" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL68" s="64">
+      <c r="AK68" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="63">
         <f>I60</f>
         <v>0</v>
       </c>
-      <c r="AM68" s="64">
+      <c r="AM68" s="63">
         <f>I73</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="69" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B69" s="76"/>
+    <row r="69" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B69" s="75"/>
       <c r="C69" s="10">
         <f t="shared" si="119"/>
         <v>-180</v>
@@ -12797,7 +12803,7 @@
         <f t="shared" si="130"/>
         <v>-270</v>
       </c>
-      <c r="Q69" s="76"/>
+      <c r="Q69" s="75"/>
       <c r="R69" s="10">
         <f t="shared" ref="R69" si="152">$AB$67</f>
         <v>180</v>
@@ -12846,38 +12852,38 @@
         <f>$AC$67</f>
         <v>270</v>
       </c>
-      <c r="AE69" s="64"/>
-      <c r="AF69" s="64"/>
-      <c r="AG69" s="64">
+      <c r="AE69" s="63"/>
+      <c r="AF69" s="63"/>
+      <c r="AG69" s="63">
         <f>I9</f>
         <v>22</v>
       </c>
-      <c r="AH69" s="64">
+      <c r="AH69" s="63">
         <f>I22</f>
         <v>8</v>
       </c>
-      <c r="AI69" s="64">
+      <c r="AI69" s="63">
         <f>I35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ69" s="64">
+      <c r="AJ69" s="63">
         <f>I48</f>
         <v>31.25</v>
       </c>
-      <c r="AK69" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL69" s="64">
+      <c r="AK69" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="63">
         <f>I61</f>
         <v>0</v>
       </c>
-      <c r="AM69" s="64">
+      <c r="AM69" s="63">
         <f>I74</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="70" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="76"/>
+    <row r="70" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="75"/>
       <c r="C70" s="14">
         <f t="shared" si="119"/>
         <v>-90</v>
@@ -12926,7 +12932,7 @@
         <f t="shared" si="130"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="76"/>
+      <c r="Q70" s="75"/>
       <c r="R70" s="14">
         <f t="shared" ref="R70" si="162">$AB$68</f>
         <v>90</v>
@@ -12975,38 +12981,38 @@
         <f>$AC$68</f>
         <v>0</v>
       </c>
-      <c r="AE70" s="64"/>
-      <c r="AF70" s="64"/>
-      <c r="AG70" s="64">
+      <c r="AE70" s="63"/>
+      <c r="AF70" s="63"/>
+      <c r="AG70" s="63">
         <f>H9</f>
         <v>22</v>
       </c>
-      <c r="AH70" s="64">
+      <c r="AH70" s="63">
         <f>H22</f>
         <v>9</v>
       </c>
-      <c r="AI70" s="64">
+      <c r="AI70" s="63">
         <f>H35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ70" s="64">
+      <c r="AJ70" s="63">
         <f>H48</f>
         <v>-31.25</v>
       </c>
-      <c r="AK70" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL70" s="64">
+      <c r="AK70" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="63">
         <f>H61</f>
         <v>0</v>
       </c>
-      <c r="AM70" s="64">
+      <c r="AM70" s="63">
         <f>H74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B71" s="76"/>
+    <row r="71" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B71" s="75"/>
       <c r="C71" s="18">
         <f t="shared" si="119"/>
         <v>-180</v>
@@ -13055,7 +13061,7 @@
         <f t="shared" si="130"/>
         <v>-270</v>
       </c>
-      <c r="Q71" s="76"/>
+      <c r="Q71" s="75"/>
       <c r="R71" s="18">
         <f t="shared" ref="R71" si="172">$AB$67</f>
         <v>180</v>
@@ -13104,38 +13110,38 @@
         <f t="shared" ref="AC71" si="183">$AC$67</f>
         <v>270</v>
       </c>
-      <c r="AE71" s="64"/>
-      <c r="AF71" s="64"/>
-      <c r="AG71" s="64">
+      <c r="AE71" s="63"/>
+      <c r="AF71" s="63"/>
+      <c r="AG71" s="63">
         <f>H8</f>
         <v>22</v>
       </c>
-      <c r="AH71" s="64">
+      <c r="AH71" s="63">
         <f>H21</f>
         <v>10</v>
       </c>
-      <c r="AI71" s="64">
+      <c r="AI71" s="63">
         <f>H34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ71" s="64">
+      <c r="AJ71" s="63">
         <f>H47</f>
         <v>-31.25</v>
       </c>
-      <c r="AK71" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL71" s="64">
+      <c r="AK71" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="63">
         <f>H60</f>
         <v>0</v>
       </c>
-      <c r="AM71" s="64">
+      <c r="AM71" s="63">
         <f>H73</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="72" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B72" s="76"/>
+    <row r="72" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B72" s="75"/>
       <c r="C72" s="6">
         <f t="shared" si="119"/>
         <v>-90</v>
@@ -13184,7 +13190,7 @@
         <f t="shared" si="130"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="76"/>
+      <c r="Q72" s="75"/>
       <c r="R72" s="6">
         <f t="shared" ref="R72" si="184">$AB$68</f>
         <v>90</v>
@@ -13233,38 +13239,38 @@
         <f t="shared" ref="AC72" si="195">$AC$68</f>
         <v>0</v>
       </c>
-      <c r="AE72" s="64"/>
-      <c r="AF72" s="64"/>
-      <c r="AG72" s="64">
+      <c r="AE72" s="63"/>
+      <c r="AF72" s="63"/>
+      <c r="AG72" s="63">
         <f>H7</f>
         <v>22</v>
       </c>
-      <c r="AH72" s="64">
+      <c r="AH72" s="63">
         <f>H20</f>
         <v>11</v>
       </c>
-      <c r="AI72" s="64">
+      <c r="AI72" s="63">
         <f>H33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ72" s="64">
+      <c r="AJ72" s="63">
         <f>H46</f>
         <v>-31.25</v>
       </c>
-      <c r="AK72" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL72" s="64">
+      <c r="AK72" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="63">
         <f>H59</f>
         <v>0</v>
       </c>
-      <c r="AM72" s="64">
+      <c r="AM72" s="63">
         <f>H72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B73" s="76"/>
+    <row r="73" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B73" s="75"/>
       <c r="C73" s="10">
         <f t="shared" si="119"/>
         <v>-180</v>
@@ -13313,7 +13319,7 @@
         <f t="shared" si="130"/>
         <v>-270</v>
       </c>
-      <c r="Q73" s="76"/>
+      <c r="Q73" s="75"/>
       <c r="R73" s="10">
         <f t="shared" ref="R73" si="196">$AB$67</f>
         <v>180</v>
@@ -13362,38 +13368,38 @@
         <f t="shared" ref="AC73" si="207">$AC$67</f>
         <v>270</v>
       </c>
-      <c r="AE73" s="64"/>
-      <c r="AF73" s="64"/>
-      <c r="AG73" s="64">
+      <c r="AE73" s="63"/>
+      <c r="AF73" s="63"/>
+      <c r="AG73" s="63">
         <f>H6</f>
         <v>22</v>
       </c>
-      <c r="AH73" s="64">
+      <c r="AH73" s="63">
         <f>H19</f>
         <v>12</v>
       </c>
-      <c r="AI73" s="64">
+      <c r="AI73" s="63">
         <f>H32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ73" s="64">
+      <c r="AJ73" s="63">
         <f>H45</f>
         <v>-31.25</v>
       </c>
-      <c r="AK73" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL73" s="64">
+      <c r="AK73" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="63">
         <f>H58</f>
         <v>0</v>
       </c>
-      <c r="AM73" s="64">
+      <c r="AM73" s="63">
         <f>H71</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="74" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="76"/>
+    <row r="74" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="75"/>
       <c r="C74" s="19">
         <f t="shared" si="119"/>
         <v>-90</v>
@@ -13442,7 +13448,7 @@
         <f t="shared" si="130"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="76"/>
+      <c r="Q74" s="75"/>
       <c r="R74" s="19">
         <f t="shared" ref="R74" si="208">$AB$68</f>
         <v>90</v>
@@ -13491,38 +13497,38 @@
         <f t="shared" ref="AC74" si="219">$AC$68</f>
         <v>0</v>
       </c>
-      <c r="AE74" s="64"/>
-      <c r="AF74" s="64"/>
-      <c r="AG74" s="64">
+      <c r="AE74" s="63"/>
+      <c r="AF74" s="63"/>
+      <c r="AG74" s="63">
         <f>G6</f>
         <v>22</v>
       </c>
-      <c r="AH74" s="64">
+      <c r="AH74" s="63">
         <f>G19</f>
         <v>13</v>
       </c>
-      <c r="AI74" s="64">
+      <c r="AI74" s="63">
         <f>G32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ74" s="64">
+      <c r="AJ74" s="63">
         <f>G45</f>
         <v>-93.75</v>
       </c>
-      <c r="AK74" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL74" s="64">
+      <c r="AK74" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="63">
         <f>G58</f>
         <v>0</v>
       </c>
-      <c r="AM74" s="64">
+      <c r="AM74" s="63">
         <f>G71</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="75" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B75" s="76"/>
+    <row r="75" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B75" s="75"/>
       <c r="C75" s="18">
         <f t="shared" si="119"/>
         <v>-180</v>
@@ -13571,7 +13577,7 @@
         <f t="shared" si="130"/>
         <v>-270</v>
       </c>
-      <c r="Q75" s="76"/>
+      <c r="Q75" s="75"/>
       <c r="R75" s="18">
         <f t="shared" ref="R75" si="220">$AB$67</f>
         <v>180</v>
@@ -13620,38 +13626,38 @@
         <f t="shared" ref="AC75" si="231">$AC$67</f>
         <v>270</v>
       </c>
-      <c r="AE75" s="64"/>
-      <c r="AF75" s="64"/>
-      <c r="AG75" s="64">
+      <c r="AE75" s="63"/>
+      <c r="AF75" s="63"/>
+      <c r="AG75" s="63">
         <f>G7</f>
         <v>22</v>
       </c>
-      <c r="AH75" s="64">
+      <c r="AH75" s="63">
         <f>G20</f>
         <v>14</v>
       </c>
-      <c r="AI75" s="64">
+      <c r="AI75" s="63">
         <f>G33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ75" s="64">
+      <c r="AJ75" s="63">
         <f>G46</f>
         <v>-93.75</v>
       </c>
-      <c r="AK75" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL75" s="64">
+      <c r="AK75" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="63">
         <f>G59</f>
         <v>0</v>
       </c>
-      <c r="AM75" s="64">
+      <c r="AM75" s="63">
         <f>G72</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="76" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B76" s="76"/>
+    <row r="76" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B76" s="75"/>
       <c r="C76" s="6">
         <f t="shared" si="119"/>
         <v>-90</v>
@@ -13700,7 +13706,7 @@
         <f t="shared" si="130"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="76"/>
+      <c r="Q76" s="75"/>
       <c r="R76" s="6">
         <f t="shared" ref="R76" si="232">$AB$68</f>
         <v>90</v>
@@ -13749,38 +13755,38 @@
         <f t="shared" ref="AC76" si="243">$AC$68</f>
         <v>0</v>
       </c>
-      <c r="AE76" s="64"/>
-      <c r="AF76" s="64"/>
-      <c r="AG76" s="64">
+      <c r="AE76" s="63"/>
+      <c r="AF76" s="63"/>
+      <c r="AG76" s="63">
         <f>G8</f>
         <v>22</v>
       </c>
-      <c r="AH76" s="64">
+      <c r="AH76" s="63">
         <f>G21</f>
         <v>15</v>
       </c>
-      <c r="AI76" s="64">
+      <c r="AI76" s="63">
         <f>G34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ76" s="64">
+      <c r="AJ76" s="63">
         <f>G47</f>
         <v>-93.75</v>
       </c>
-      <c r="AK76" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL76" s="64">
+      <c r="AK76" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="63">
         <f>G60</f>
         <v>0</v>
       </c>
-      <c r="AM76" s="64">
+      <c r="AM76" s="63">
         <f>G73</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="77" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B77" s="76"/>
+    <row r="77" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="B77" s="75"/>
       <c r="C77" s="10">
         <f t="shared" si="119"/>
         <v>-180</v>
@@ -13829,7 +13835,7 @@
         <f t="shared" si="130"/>
         <v>-270</v>
       </c>
-      <c r="Q77" s="76"/>
+      <c r="Q77" s="75"/>
       <c r="R77" s="10">
         <f t="shared" ref="R77" si="244">$AB$67</f>
         <v>180</v>
@@ -13878,38 +13884,38 @@
         <f t="shared" ref="AC77" si="255">$AC$67</f>
         <v>270</v>
       </c>
-      <c r="AE77" s="64"/>
-      <c r="AF77" s="64"/>
-      <c r="AG77" s="64">
+      <c r="AE77" s="63"/>
+      <c r="AF77" s="63"/>
+      <c r="AG77" s="63">
         <f>N9</f>
         <v>23</v>
       </c>
-      <c r="AH77" s="64">
+      <c r="AH77" s="63">
         <f>N22</f>
         <v>1</v>
       </c>
-      <c r="AI77" s="64">
+      <c r="AI77" s="63">
         <f>N35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ77" s="64">
+      <c r="AJ77" s="63">
         <f>N48</f>
         <v>343.75</v>
       </c>
-      <c r="AK77" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL77" s="64">
+      <c r="AK77" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="63">
         <f>N61</f>
         <v>0</v>
       </c>
-      <c r="AM77" s="64">
+      <c r="AM77" s="63">
         <f>N74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="76"/>
+    <row r="78" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B78" s="75"/>
       <c r="C78" s="19">
         <f t="shared" si="119"/>
         <v>-90</v>
@@ -13958,7 +13964,7 @@
         <f>-AC78</f>
         <v>0</v>
       </c>
-      <c r="Q78" s="76"/>
+      <c r="Q78" s="75"/>
       <c r="R78" s="19">
         <f t="shared" ref="R78" si="256">$AB$68</f>
         <v>90</v>
@@ -14007,840 +14013,840 @@
         <f t="shared" ref="AC78" si="267">$AC$68</f>
         <v>0</v>
       </c>
-      <c r="AE78" s="64"/>
-      <c r="AF78" s="64"/>
-      <c r="AG78" s="64">
+      <c r="AE78" s="63"/>
+      <c r="AF78" s="63"/>
+      <c r="AG78" s="63">
         <f>N8</f>
         <v>23</v>
       </c>
-      <c r="AH78" s="64">
+      <c r="AH78" s="63">
         <f>N21</f>
         <v>2</v>
       </c>
-      <c r="AI78" s="64">
+      <c r="AI78" s="63">
         <f>N34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ78" s="64">
+      <c r="AJ78" s="63">
         <f>N47</f>
         <v>343.75</v>
       </c>
-      <c r="AK78" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL78" s="64">
+      <c r="AK78" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="63">
         <f>N60</f>
         <v>0</v>
       </c>
-      <c r="AM78" s="64">
+      <c r="AM78" s="63">
         <f>N73</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="79" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="AE79" s="64"/>
-      <c r="AF79" s="64"/>
-      <c r="AG79" s="64">
+    <row r="79" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="AE79" s="63"/>
+      <c r="AF79" s="63"/>
+      <c r="AG79" s="63">
         <f>N7</f>
         <v>23</v>
       </c>
-      <c r="AH79" s="64">
+      <c r="AH79" s="63">
         <f>N20</f>
         <v>3</v>
       </c>
-      <c r="AI79" s="64">
+      <c r="AI79" s="63">
         <f>N33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ79" s="64">
+      <c r="AJ79" s="63">
         <f>N46</f>
         <v>343.75</v>
       </c>
-      <c r="AK79" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="64">
+      <c r="AK79" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="63">
         <f>N59</f>
         <v>0</v>
       </c>
-      <c r="AM79" s="64">
+      <c r="AM79" s="63">
         <f>N72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="AE80" s="64"/>
-      <c r="AF80" s="64"/>
-      <c r="AG80" s="64">
+    <row r="80" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="AE80" s="63"/>
+      <c r="AF80" s="63"/>
+      <c r="AG80" s="63">
         <f>N6</f>
         <v>23</v>
       </c>
-      <c r="AH80" s="64">
+      <c r="AH80" s="63">
         <f>N19</f>
         <v>4</v>
       </c>
-      <c r="AI80" s="64">
+      <c r="AI80" s="63">
         <f>N32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ80" s="64">
+      <c r="AJ80" s="63">
         <f>N45</f>
         <v>343.75</v>
       </c>
-      <c r="AK80" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL80" s="64">
+      <c r="AK80" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="63">
         <f>N58</f>
         <v>0</v>
       </c>
-      <c r="AM80" s="64">
+      <c r="AM80" s="63">
         <f>N71</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="81" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE81" s="64"/>
-      <c r="AF81" s="64"/>
-      <c r="AG81" s="64">
+    <row r="81" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE81" s="63"/>
+      <c r="AF81" s="63"/>
+      <c r="AG81" s="63">
         <f>M6</f>
         <v>23</v>
       </c>
-      <c r="AH81" s="64">
+      <c r="AH81" s="63">
         <f>M19</f>
         <v>5</v>
       </c>
-      <c r="AI81" s="64">
+      <c r="AI81" s="63">
         <f>M32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ81" s="64">
+      <c r="AJ81" s="63">
         <f>M45</f>
         <v>281.25</v>
       </c>
-      <c r="AK81" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL81" s="64">
+      <c r="AK81" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="63">
         <f>M58</f>
         <v>0</v>
       </c>
-      <c r="AM81" s="64">
+      <c r="AM81" s="63">
         <f>M71</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="82" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE82" s="64"/>
-      <c r="AF82" s="64"/>
-      <c r="AG82" s="64">
+    <row r="82" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE82" s="63"/>
+      <c r="AF82" s="63"/>
+      <c r="AG82" s="63">
         <f>M7</f>
         <v>23</v>
       </c>
-      <c r="AH82" s="64">
+      <c r="AH82" s="63">
         <f>M20</f>
         <v>6</v>
       </c>
-      <c r="AI82" s="64">
+      <c r="AI82" s="63">
         <f>M33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ82" s="64">
+      <c r="AJ82" s="63">
         <f>M46</f>
         <v>281.25</v>
       </c>
-      <c r="AK82" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL82" s="64">
+      <c r="AK82" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="63">
         <f>M59</f>
         <v>0</v>
       </c>
-      <c r="AM82" s="64">
+      <c r="AM82" s="63">
         <f>M72</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="83" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE83" s="64"/>
-      <c r="AF83" s="64"/>
-      <c r="AG83" s="64">
+    <row r="83" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE83" s="63"/>
+      <c r="AF83" s="63"/>
+      <c r="AG83" s="63">
         <f>M8</f>
         <v>23</v>
       </c>
-      <c r="AH83" s="64">
+      <c r="AH83" s="63">
         <f>M21</f>
         <v>7</v>
       </c>
-      <c r="AI83" s="64">
+      <c r="AI83" s="63">
         <f>M34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ83" s="64">
+      <c r="AJ83" s="63">
         <f>M47</f>
         <v>281.25</v>
       </c>
-      <c r="AK83" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL83" s="64">
+      <c r="AK83" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="63">
         <f>M60</f>
         <v>0</v>
       </c>
-      <c r="AM83" s="64">
+      <c r="AM83" s="63">
         <f>M73</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="84" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE84" s="64"/>
-      <c r="AF84" s="64"/>
-      <c r="AG84" s="64">
+    <row r="84" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE84" s="63"/>
+      <c r="AF84" s="63"/>
+      <c r="AG84" s="63">
         <f>M9</f>
         <v>23</v>
       </c>
-      <c r="AH84" s="64">
+      <c r="AH84" s="63">
         <f>M22</f>
         <v>8</v>
       </c>
-      <c r="AI84" s="64">
+      <c r="AI84" s="63">
         <f>M35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ84" s="64">
+      <c r="AJ84" s="63">
         <f>M48</f>
         <v>281.25</v>
       </c>
-      <c r="AK84" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL84" s="64">
+      <c r="AK84" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="63">
         <f>M61</f>
         <v>0</v>
       </c>
-      <c r="AM84" s="64">
+      <c r="AM84" s="63">
         <f>M74</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="85" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE85" s="64"/>
-      <c r="AF85" s="64"/>
-      <c r="AG85" s="64">
+    <row r="85" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE85" s="63"/>
+      <c r="AF85" s="63"/>
+      <c r="AG85" s="63">
         <f>L9</f>
         <v>23</v>
       </c>
-      <c r="AH85" s="64">
+      <c r="AH85" s="63">
         <f>L22</f>
         <v>9</v>
       </c>
-      <c r="AI85" s="64">
+      <c r="AI85" s="63">
         <f>L35</f>
         <v>-93.75</v>
       </c>
-      <c r="AJ85" s="64">
+      <c r="AJ85" s="63">
         <f>L48</f>
         <v>218.75</v>
       </c>
-      <c r="AK85" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL85" s="64">
+      <c r="AK85" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="63">
         <f>L61</f>
         <v>0</v>
       </c>
-      <c r="AM85" s="64">
+      <c r="AM85" s="63">
         <f>L74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE86" s="64"/>
-      <c r="AF86" s="64"/>
-      <c r="AG86" s="64">
+    <row r="86" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE86" s="63"/>
+      <c r="AF86" s="63"/>
+      <c r="AG86" s="63">
         <f>L8</f>
         <v>23</v>
       </c>
-      <c r="AH86" s="64">
+      <c r="AH86" s="63">
         <f>L21</f>
         <v>10</v>
       </c>
-      <c r="AI86" s="64">
+      <c r="AI86" s="63">
         <f>L34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ86" s="64">
+      <c r="AJ86" s="63">
         <f>L47</f>
         <v>218.75</v>
       </c>
-      <c r="AK86" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL86" s="64">
+      <c r="AK86" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="63">
         <f>L60</f>
         <v>0</v>
       </c>
-      <c r="AM86" s="64">
+      <c r="AM86" s="63">
         <f>L73</f>
         <v>-270</v>
       </c>
-      <c r="AN86" s="63"/>
-      <c r="AO86" s="63"/>
-      <c r="AP86" s="63"/>
-      <c r="AQ86" s="63"/>
-      <c r="AR86" s="63"/>
-      <c r="AS86" s="63"/>
-      <c r="AT86" s="63"/>
-    </row>
-    <row r="87" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE87" s="64"/>
-      <c r="AF87" s="64"/>
-      <c r="AG87" s="64">
+      <c r="AN86" s="58"/>
+      <c r="AO86" s="58"/>
+      <c r="AP86" s="58"/>
+      <c r="AQ86" s="58"/>
+      <c r="AR86" s="58"/>
+      <c r="AS86" s="58"/>
+      <c r="AT86" s="58"/>
+    </row>
+    <row r="87" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE87" s="63"/>
+      <c r="AF87" s="63"/>
+      <c r="AG87" s="63">
         <f>L7</f>
         <v>23</v>
       </c>
-      <c r="AH87" s="64">
+      <c r="AH87" s="63">
         <f>L20</f>
         <v>11</v>
       </c>
-      <c r="AI87" s="64">
+      <c r="AI87" s="63">
         <f>L33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ87" s="64">
+      <c r="AJ87" s="63">
         <f>L46</f>
         <v>218.75</v>
       </c>
-      <c r="AK87" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL87" s="64">
+      <c r="AK87" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="63">
         <f>L59</f>
         <v>0</v>
       </c>
-      <c r="AM87" s="64">
+      <c r="AM87" s="63">
         <f>L72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE88" s="64"/>
-      <c r="AF88" s="64"/>
-      <c r="AG88" s="64">
+    <row r="88" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE88" s="63"/>
+      <c r="AF88" s="63"/>
+      <c r="AG88" s="63">
         <f>L6</f>
         <v>23</v>
       </c>
-      <c r="AH88" s="64">
+      <c r="AH88" s="63">
         <f>L19</f>
         <v>12</v>
       </c>
-      <c r="AI88" s="64">
+      <c r="AI88" s="63">
         <f>L32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ88" s="64">
+      <c r="AJ88" s="63">
         <f>L45</f>
         <v>218.75</v>
       </c>
-      <c r="AK88" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL88" s="64">
+      <c r="AK88" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="63">
         <f>L58</f>
         <v>0</v>
       </c>
-      <c r="AM88" s="64">
+      <c r="AM88" s="63">
         <f>L71</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="89" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE89" s="64"/>
-      <c r="AF89" s="64"/>
-      <c r="AG89" s="64">
+    <row r="89" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE89" s="63"/>
+      <c r="AF89" s="63"/>
+      <c r="AG89" s="63">
         <f>K6</f>
         <v>23</v>
       </c>
-      <c r="AH89" s="64">
+      <c r="AH89" s="63">
         <f>K19</f>
         <v>13</v>
       </c>
-      <c r="AI89" s="64">
+      <c r="AI89" s="63">
         <f>K32</f>
         <v>93.75</v>
       </c>
-      <c r="AJ89" s="64">
+      <c r="AJ89" s="63">
         <f>K45</f>
         <v>156.25</v>
       </c>
-      <c r="AK89" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL89" s="64">
+      <c r="AK89" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="63">
         <f>K58</f>
         <v>0</v>
       </c>
-      <c r="AM89" s="64">
+      <c r="AM89" s="63">
         <f>K71</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="90" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE90" s="64"/>
-      <c r="AF90" s="64"/>
-      <c r="AG90" s="64">
+    <row r="90" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE90" s="63"/>
+      <c r="AF90" s="63"/>
+      <c r="AG90" s="63">
         <f>K7</f>
         <v>23</v>
       </c>
-      <c r="AH90" s="64">
+      <c r="AH90" s="63">
         <f>K20</f>
         <v>14</v>
       </c>
-      <c r="AI90" s="64">
+      <c r="AI90" s="63">
         <f>K33</f>
         <v>31.25</v>
       </c>
-      <c r="AJ90" s="64">
+      <c r="AJ90" s="63">
         <f>K46</f>
         <v>156.25</v>
       </c>
-      <c r="AK90" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL90" s="64">
+      <c r="AK90" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="63">
         <f>K59</f>
         <v>0</v>
       </c>
-      <c r="AM90" s="64">
+      <c r="AM90" s="63">
         <f>K72</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="91" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE91" s="64"/>
-      <c r="AF91" s="64"/>
-      <c r="AG91" s="64">
+    <row r="91" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE91" s="63"/>
+      <c r="AF91" s="63"/>
+      <c r="AG91" s="63">
         <f>K8</f>
         <v>23</v>
       </c>
-      <c r="AH91" s="64">
+      <c r="AH91" s="63">
         <f>K21</f>
         <v>15</v>
       </c>
-      <c r="AI91" s="64">
+      <c r="AI91" s="63">
         <f>K34</f>
         <v>-31.25</v>
       </c>
-      <c r="AJ91" s="64">
+      <c r="AJ91" s="63">
         <f>K47</f>
         <v>156.25</v>
       </c>
-      <c r="AK91" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL91" s="64">
+      <c r="AK91" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="63">
         <f>K60</f>
         <v>0</v>
       </c>
-      <c r="AM91" s="64">
+      <c r="AM91" s="63">
         <f>K73</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="92" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE92" s="64"/>
-      <c r="AF92" s="64"/>
-      <c r="AG92" s="64">
+    <row r="92" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE92" s="63"/>
+      <c r="AF92" s="63"/>
+      <c r="AG92" s="63">
         <f>F13</f>
         <v>31</v>
       </c>
-      <c r="AH92" s="64">
+      <c r="AH92" s="63">
         <f>F26</f>
         <v>1</v>
       </c>
-      <c r="AI92" s="64">
+      <c r="AI92" s="63">
         <f>F39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ92" s="64">
+      <c r="AJ92" s="63">
         <f>F52</f>
         <v>-156.25</v>
       </c>
-      <c r="AK92" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL92" s="64">
+      <c r="AK92" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="63">
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="AM92" s="64">
+      <c r="AM92" s="63">
         <f>F78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE93" s="64"/>
-      <c r="AF93" s="64"/>
-      <c r="AG93" s="64">
+    <row r="93" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE93" s="63"/>
+      <c r="AF93" s="63"/>
+      <c r="AG93" s="63">
         <f>F12</f>
         <v>31</v>
       </c>
-      <c r="AH93" s="64">
+      <c r="AH93" s="63">
         <f>F25</f>
         <v>2</v>
       </c>
-      <c r="AI93" s="64">
+      <c r="AI93" s="63">
         <f>F38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ93" s="64">
+      <c r="AJ93" s="63">
         <f>F51</f>
         <v>-156.25</v>
       </c>
-      <c r="AK93" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL93" s="64">
+      <c r="AK93" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="63">
         <f>F64</f>
         <v>0</v>
       </c>
-      <c r="AM93" s="64">
+      <c r="AM93" s="63">
         <f>F77</f>
         <v>-270</v>
       </c>
-      <c r="AN93" s="63"/>
-      <c r="AO93" s="63"/>
-      <c r="AP93" s="63"/>
-      <c r="AQ93" s="63"/>
-      <c r="AR93" s="63"/>
-      <c r="AS93" s="63"/>
-      <c r="AT93" s="63"/>
-    </row>
-    <row r="94" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE94" s="64"/>
-      <c r="AF94" s="64"/>
-      <c r="AG94" s="64">
+      <c r="AN93" s="58"/>
+      <c r="AO93" s="58"/>
+      <c r="AP93" s="58"/>
+      <c r="AQ93" s="58"/>
+      <c r="AR93" s="58"/>
+      <c r="AS93" s="58"/>
+      <c r="AT93" s="58"/>
+    </row>
+    <row r="94" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE94" s="63"/>
+      <c r="AF94" s="63"/>
+      <c r="AG94" s="63">
         <f>F11</f>
         <v>31</v>
       </c>
-      <c r="AH94" s="64">
+      <c r="AH94" s="63">
         <f>F24</f>
         <v>3</v>
       </c>
-      <c r="AI94" s="64">
+      <c r="AI94" s="63">
         <f>F37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ94" s="64">
+      <c r="AJ94" s="63">
         <f>F50</f>
         <v>-156.25</v>
       </c>
-      <c r="AK94" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL94" s="64">
+      <c r="AK94" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="63">
         <f>F63</f>
         <v>0</v>
       </c>
-      <c r="AM94" s="64">
+      <c r="AM94" s="63">
         <f>F76</f>
         <v>0</v>
       </c>
-      <c r="AN94" s="63"/>
-      <c r="AO94" s="63"/>
-      <c r="AP94" s="63"/>
-      <c r="AQ94" s="63"/>
-      <c r="AR94" s="63"/>
-      <c r="AS94" s="63"/>
-      <c r="AT94" s="63"/>
-    </row>
-    <row r="95" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE95" s="64"/>
-      <c r="AF95" s="64"/>
-      <c r="AG95" s="64">
+      <c r="AN94" s="58"/>
+      <c r="AO94" s="58"/>
+      <c r="AP94" s="58"/>
+      <c r="AQ94" s="58"/>
+      <c r="AR94" s="58"/>
+      <c r="AS94" s="58"/>
+      <c r="AT94" s="58"/>
+    </row>
+    <row r="95" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE95" s="63"/>
+      <c r="AF95" s="63"/>
+      <c r="AG95" s="63">
         <f>F10</f>
         <v>31</v>
       </c>
-      <c r="AH95" s="64">
+      <c r="AH95" s="63">
         <f>F23</f>
         <v>4</v>
       </c>
-      <c r="AI95" s="64">
+      <c r="AI95" s="63">
         <f>F36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ95" s="64">
+      <c r="AJ95" s="63">
         <f>F49</f>
         <v>-156.25</v>
       </c>
-      <c r="AK95" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL95" s="64">
+      <c r="AK95" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="63">
         <f>F62</f>
         <v>0</v>
       </c>
-      <c r="AM95" s="64">
+      <c r="AM95" s="63">
         <f>F75</f>
         <v>-270</v>
       </c>
-      <c r="AN95" s="63"/>
-      <c r="AO95" s="63"/>
-      <c r="AP95" s="63"/>
-      <c r="AQ95" s="63"/>
-      <c r="AR95" s="63"/>
-      <c r="AS95" s="63"/>
-      <c r="AT95" s="63"/>
-    </row>
-    <row r="96" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE96" s="64"/>
-      <c r="AF96" s="64"/>
-      <c r="AG96" s="64">
+      <c r="AN95" s="58"/>
+      <c r="AO95" s="58"/>
+      <c r="AP95" s="58"/>
+      <c r="AQ95" s="58"/>
+      <c r="AR95" s="58"/>
+      <c r="AS95" s="58"/>
+      <c r="AT95" s="58"/>
+    </row>
+    <row r="96" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE96" s="63"/>
+      <c r="AF96" s="63"/>
+      <c r="AG96" s="63">
         <f>E10</f>
         <v>31</v>
       </c>
-      <c r="AH96" s="64">
+      <c r="AH96" s="63">
         <f>E23</f>
         <v>5</v>
       </c>
-      <c r="AI96" s="64">
+      <c r="AI96" s="63">
         <f>E36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ96" s="64">
+      <c r="AJ96" s="63">
         <f>E49</f>
         <v>-218.75</v>
       </c>
-      <c r="AK96" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL96" s="64">
+      <c r="AK96" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="63">
         <f>E62</f>
         <v>0</v>
       </c>
-      <c r="AM96" s="64">
+      <c r="AM96" s="63">
         <f>E75</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="97" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE97" s="64"/>
-      <c r="AF97" s="64"/>
-      <c r="AG97" s="64">
+    <row r="97" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE97" s="63"/>
+      <c r="AF97" s="63"/>
+      <c r="AG97" s="63">
         <f>E11</f>
         <v>31</v>
       </c>
-      <c r="AH97" s="64">
+      <c r="AH97" s="63">
         <f>E24</f>
         <v>6</v>
       </c>
-      <c r="AI97" s="64">
+      <c r="AI97" s="63">
         <f>E37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ97" s="64">
+      <c r="AJ97" s="63">
         <f>E50</f>
         <v>-218.75</v>
       </c>
-      <c r="AK97" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL97" s="64">
+      <c r="AK97" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="63">
         <f>E63</f>
         <v>0</v>
       </c>
-      <c r="AM97" s="64">
+      <c r="AM97" s="63">
         <f>E76</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="98" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE98" s="64"/>
-      <c r="AF98" s="64"/>
-      <c r="AG98" s="64">
+    <row r="98" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE98" s="63"/>
+      <c r="AF98" s="63"/>
+      <c r="AG98" s="63">
         <f>E12</f>
         <v>31</v>
       </c>
-      <c r="AH98" s="64">
+      <c r="AH98" s="63">
         <f>E25</f>
         <v>7</v>
       </c>
-      <c r="AI98" s="64">
+      <c r="AI98" s="63">
         <f>E38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ98" s="64">
+      <c r="AJ98" s="63">
         <f>E51</f>
         <v>-218.75</v>
       </c>
-      <c r="AK98" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL98" s="64">
+      <c r="AK98" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="63">
         <f>E64</f>
         <v>0</v>
       </c>
-      <c r="AM98" s="64">
+      <c r="AM98" s="63">
         <f>E77</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="99" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE99" s="64"/>
-      <c r="AF99" s="64"/>
-      <c r="AG99" s="64">
+    <row r="99" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE99" s="63"/>
+      <c r="AF99" s="63"/>
+      <c r="AG99" s="63">
         <f>E13</f>
         <v>31</v>
       </c>
-      <c r="AH99" s="64">
+      <c r="AH99" s="63">
         <f>E26</f>
         <v>8</v>
       </c>
-      <c r="AI99" s="64">
+      <c r="AI99" s="63">
         <f>E39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ99" s="64">
+      <c r="AJ99" s="63">
         <f>E52</f>
         <v>-218.75</v>
       </c>
-      <c r="AK99" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="64">
+      <c r="AK99" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="63">
         <f>E65</f>
         <v>0</v>
       </c>
-      <c r="AM99" s="64">
+      <c r="AM99" s="63">
         <f>E78</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="100" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE100" s="64"/>
-      <c r="AF100" s="64"/>
-      <c r="AG100" s="64">
+    <row r="100" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE100" s="63"/>
+      <c r="AF100" s="63"/>
+      <c r="AG100" s="63">
         <f>D13</f>
         <v>31</v>
       </c>
-      <c r="AH100" s="64">
+      <c r="AH100" s="63">
         <f>D26</f>
         <v>9</v>
       </c>
-      <c r="AI100" s="64">
+      <c r="AI100" s="63">
         <f>D39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ100" s="64">
+      <c r="AJ100" s="63">
         <f>D52</f>
         <v>-281.25</v>
       </c>
-      <c r="AK100" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL100" s="64">
+      <c r="AK100" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="63">
         <f>D65</f>
         <v>0</v>
       </c>
-      <c r="AM100" s="64">
+      <c r="AM100" s="63">
         <f>D78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE101" s="64"/>
-      <c r="AF101" s="64"/>
-      <c r="AG101" s="64">
+    <row r="101" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE101" s="63"/>
+      <c r="AF101" s="63"/>
+      <c r="AG101" s="63">
         <f>D12</f>
         <v>31</v>
       </c>
-      <c r="AH101" s="64">
+      <c r="AH101" s="63">
         <f>D25</f>
         <v>10</v>
       </c>
-      <c r="AI101" s="64">
+      <c r="AI101" s="63">
         <f>D38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ101" s="64">
+      <c r="AJ101" s="63">
         <f>D51</f>
         <v>-281.25</v>
       </c>
-      <c r="AK101" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL101" s="64">
+      <c r="AK101" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="63">
         <f>D64</f>
         <v>0</v>
       </c>
-      <c r="AM101" s="64">
+      <c r="AM101" s="63">
         <f>D77</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="102" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE102" s="64"/>
-      <c r="AF102" s="64"/>
-      <c r="AG102" s="64">
+    <row r="102" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE102" s="63"/>
+      <c r="AF102" s="63"/>
+      <c r="AG102" s="63">
         <f>D11</f>
         <v>31</v>
       </c>
-      <c r="AH102" s="64">
+      <c r="AH102" s="63">
         <f>D24</f>
         <v>11</v>
       </c>
-      <c r="AI102" s="64">
+      <c r="AI102" s="63">
         <f>D37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ102" s="64">
+      <c r="AJ102" s="63">
         <f>D50</f>
         <v>-281.25</v>
       </c>
-      <c r="AK102" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL102" s="64">
+      <c r="AK102" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="63">
         <f>D63</f>
         <v>0</v>
       </c>
-      <c r="AM102" s="64">
+      <c r="AM102" s="63">
         <f>D76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE103" s="64"/>
-      <c r="AF103" s="64"/>
-      <c r="AG103" s="64">
+    <row r="103" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE103" s="63"/>
+      <c r="AF103" s="63"/>
+      <c r="AG103" s="63">
         <f>D10</f>
         <v>31</v>
       </c>
-      <c r="AH103" s="64">
+      <c r="AH103" s="63">
         <f>D23</f>
         <v>12</v>
       </c>
-      <c r="AI103" s="64">
+      <c r="AI103" s="63">
         <f>D36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ103" s="64">
+      <c r="AJ103" s="63">
         <f>D49</f>
         <v>-281.25</v>
       </c>
-      <c r="AK103" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL103" s="64">
+      <c r="AK103" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="63">
         <f>D62</f>
         <v>0</v>
       </c>
-      <c r="AM103" s="64">
+      <c r="AM103" s="63">
         <f>D75</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="104" spans="31:46" x14ac:dyDescent="0.4">
+    <row r="104" spans="31:46" x14ac:dyDescent="0.45">
       <c r="AG104">
         <f>C10</f>
         <v>31</v>
@@ -14869,7 +14875,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="105" spans="31:46" x14ac:dyDescent="0.4">
+    <row r="105" spans="31:46" x14ac:dyDescent="0.45">
       <c r="AG105">
         <f>C11</f>
         <v>31</v>
@@ -14898,7 +14904,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="106" spans="31:46" x14ac:dyDescent="0.4">
+    <row r="106" spans="31:46" x14ac:dyDescent="0.45">
       <c r="AG106">
         <f>C12</f>
         <v>31</v>
@@ -14927,1204 +14933,1204 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="107" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE107" s="64"/>
-      <c r="AF107" s="64"/>
-      <c r="AG107" s="64">
+    <row r="107" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE107" s="63"/>
+      <c r="AF107" s="63"/>
+      <c r="AG107" s="63">
         <f>J13</f>
         <v>32</v>
       </c>
-      <c r="AH107" s="64">
+      <c r="AH107" s="63">
         <f>J26</f>
         <v>1</v>
       </c>
-      <c r="AI107" s="64">
+      <c r="AI107" s="63">
         <f>J39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ107" s="64">
+      <c r="AJ107" s="63">
         <f>J52</f>
         <v>93.75</v>
       </c>
-      <c r="AK107" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL107" s="64">
+      <c r="AK107" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="63">
         <f>J65</f>
         <v>0</v>
       </c>
-      <c r="AM107" s="64">
+      <c r="AM107" s="63">
         <f>J78</f>
         <v>0</v>
       </c>
-      <c r="AN107" s="63"/>
-      <c r="AO107" s="63"/>
-      <c r="AP107" s="63"/>
-      <c r="AQ107" s="63"/>
-      <c r="AR107" s="63"/>
-      <c r="AS107" s="63"/>
-      <c r="AT107" s="63"/>
-    </row>
-    <row r="108" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE108" s="64"/>
-      <c r="AF108" s="64"/>
-      <c r="AG108" s="64">
+      <c r="AN107" s="58"/>
+      <c r="AO107" s="58"/>
+      <c r="AP107" s="58"/>
+      <c r="AQ107" s="58"/>
+      <c r="AR107" s="58"/>
+      <c r="AS107" s="58"/>
+      <c r="AT107" s="58"/>
+    </row>
+    <row r="108" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE108" s="63"/>
+      <c r="AF108" s="63"/>
+      <c r="AG108" s="63">
         <f>J12</f>
         <v>32</v>
       </c>
-      <c r="AH108" s="64">
+      <c r="AH108" s="63">
         <f>J25</f>
         <v>2</v>
       </c>
-      <c r="AI108" s="64">
+      <c r="AI108" s="63">
         <f>J38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ108" s="64">
+      <c r="AJ108" s="63">
         <f>J51</f>
         <v>93.75</v>
       </c>
-      <c r="AK108" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL108" s="64">
+      <c r="AK108" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="63">
         <f>J64</f>
         <v>0</v>
       </c>
-      <c r="AM108" s="64">
+      <c r="AM108" s="63">
         <f>J77</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="109" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE109" s="64"/>
-      <c r="AF109" s="64"/>
-      <c r="AG109" s="64">
+    <row r="109" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE109" s="63"/>
+      <c r="AF109" s="63"/>
+      <c r="AG109" s="63">
         <f>J11</f>
         <v>32</v>
       </c>
-      <c r="AH109" s="64">
+      <c r="AH109" s="63">
         <f>J24</f>
         <v>3</v>
       </c>
-      <c r="AI109" s="64">
+      <c r="AI109" s="63">
         <f>J37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ109" s="64">
+      <c r="AJ109" s="63">
         <f>J50</f>
         <v>93.75</v>
       </c>
-      <c r="AK109" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL109" s="64">
+      <c r="AK109" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL109" s="63">
         <f>J63</f>
         <v>0</v>
       </c>
-      <c r="AM109" s="64">
+      <c r="AM109" s="63">
         <f>J76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE110" s="64"/>
-      <c r="AF110" s="64"/>
-      <c r="AG110" s="64">
+    <row r="110" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE110" s="63"/>
+      <c r="AF110" s="63"/>
+      <c r="AG110" s="63">
         <f>J10</f>
         <v>32</v>
       </c>
-      <c r="AH110" s="64">
+      <c r="AH110" s="63">
         <f>J23</f>
         <v>4</v>
       </c>
-      <c r="AI110" s="64">
+      <c r="AI110" s="63">
         <f>J36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ110" s="64">
+      <c r="AJ110" s="63">
         <f>J49</f>
         <v>93.75</v>
       </c>
-      <c r="AK110" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL110" s="64">
+      <c r="AK110" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL110" s="63">
         <f>J62</f>
         <v>0</v>
       </c>
-      <c r="AM110" s="64">
+      <c r="AM110" s="63">
         <f>J75</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="111" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE111" s="64"/>
-      <c r="AF111" s="64"/>
-      <c r="AG111" s="64">
+    <row r="111" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE111" s="63"/>
+      <c r="AF111" s="63"/>
+      <c r="AG111" s="63">
         <f>I10</f>
         <v>32</v>
       </c>
-      <c r="AH111" s="64">
+      <c r="AH111" s="63">
         <f>I23</f>
         <v>5</v>
       </c>
-      <c r="AI111" s="64">
+      <c r="AI111" s="63">
         <f>I36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ111" s="64">
+      <c r="AJ111" s="63">
         <f>I49</f>
         <v>31.25</v>
       </c>
-      <c r="AK111" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL111" s="64">
+      <c r="AK111" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL111" s="63">
         <f>I62</f>
         <v>0</v>
       </c>
-      <c r="AM111" s="64">
+      <c r="AM111" s="63">
         <f>I75</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="112" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE112" s="64"/>
-      <c r="AF112" s="64"/>
-      <c r="AG112" s="64">
+    <row r="112" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE112" s="63"/>
+      <c r="AF112" s="63"/>
+      <c r="AG112" s="63">
         <f>I11</f>
         <v>32</v>
       </c>
-      <c r="AH112" s="64">
+      <c r="AH112" s="63">
         <f>I24</f>
         <v>6</v>
       </c>
-      <c r="AI112" s="64">
+      <c r="AI112" s="63">
         <f>I37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ112" s="64">
+      <c r="AJ112" s="63">
         <f>I50</f>
         <v>31.25</v>
       </c>
-      <c r="AK112" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL112" s="64">
+      <c r="AK112" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="63">
         <f>I63</f>
         <v>0</v>
       </c>
-      <c r="AM112" s="64">
+      <c r="AM112" s="63">
         <f>I76</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="113" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE113" s="64"/>
-      <c r="AF113" s="64"/>
-      <c r="AG113" s="64">
+    <row r="113" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE113" s="63"/>
+      <c r="AF113" s="63"/>
+      <c r="AG113" s="63">
         <f>I12</f>
         <v>32</v>
       </c>
-      <c r="AH113" s="64">
+      <c r="AH113" s="63">
         <f>I25</f>
         <v>7</v>
       </c>
-      <c r="AI113" s="64">
+      <c r="AI113" s="63">
         <f>I38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ113" s="64">
+      <c r="AJ113" s="63">
         <f>I51</f>
         <v>31.25</v>
       </c>
-      <c r="AK113" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL113" s="64">
+      <c r="AK113" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL113" s="63">
         <f>I64</f>
         <v>0</v>
       </c>
-      <c r="AM113" s="64">
+      <c r="AM113" s="63">
         <f>I77</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="114" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE114" s="64"/>
-      <c r="AF114" s="64"/>
-      <c r="AG114" s="64">
+    <row r="114" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE114" s="63"/>
+      <c r="AF114" s="63"/>
+      <c r="AG114" s="63">
         <f>I13</f>
         <v>32</v>
       </c>
-      <c r="AH114" s="64">
+      <c r="AH114" s="63">
         <f>I26</f>
         <v>8</v>
       </c>
-      <c r="AI114" s="64">
+      <c r="AI114" s="63">
         <f>I39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ114" s="64">
+      <c r="AJ114" s="63">
         <f>I52</f>
         <v>31.25</v>
       </c>
-      <c r="AK114" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL114" s="64">
+      <c r="AK114" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL114" s="63">
         <f>I65</f>
         <v>0</v>
       </c>
-      <c r="AM114" s="64">
+      <c r="AM114" s="63">
         <f>I78</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="115" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE115" s="64"/>
-      <c r="AF115" s="64"/>
-      <c r="AG115" s="64">
+    <row r="115" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE115" s="63"/>
+      <c r="AF115" s="63"/>
+      <c r="AG115" s="63">
         <f>H13</f>
         <v>32</v>
       </c>
-      <c r="AH115" s="64">
+      <c r="AH115" s="63">
         <f>H26</f>
         <v>9</v>
       </c>
-      <c r="AI115" s="64">
+      <c r="AI115" s="63">
         <f>H39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ115" s="64">
+      <c r="AJ115" s="63">
         <f>H52</f>
         <v>-31.25</v>
       </c>
-      <c r="AK115" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL115" s="64">
+      <c r="AK115" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL115" s="63">
         <f>H65</f>
         <v>0</v>
       </c>
-      <c r="AM115" s="64">
+      <c r="AM115" s="63">
         <f>H78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE116" s="64"/>
-      <c r="AF116" s="64"/>
-      <c r="AG116" s="64">
+    <row r="116" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE116" s="63"/>
+      <c r="AF116" s="63"/>
+      <c r="AG116" s="63">
         <f>H12</f>
         <v>32</v>
       </c>
-      <c r="AH116" s="64">
+      <c r="AH116" s="63">
         <f>H25</f>
         <v>10</v>
       </c>
-      <c r="AI116" s="64">
+      <c r="AI116" s="63">
         <f>H38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ116" s="64">
+      <c r="AJ116" s="63">
         <f>H51</f>
         <v>-31.25</v>
       </c>
-      <c r="AK116" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL116" s="64">
+      <c r="AK116" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL116" s="63">
         <f>H64</f>
         <v>0</v>
       </c>
-      <c r="AM116" s="64">
+      <c r="AM116" s="63">
         <f>H77</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="117" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE117" s="64"/>
-      <c r="AF117" s="64"/>
-      <c r="AG117" s="64">
+    <row r="117" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE117" s="63"/>
+      <c r="AF117" s="63"/>
+      <c r="AG117" s="63">
         <f>H11</f>
         <v>32</v>
       </c>
-      <c r="AH117" s="64">
+      <c r="AH117" s="63">
         <f>H24</f>
         <v>11</v>
       </c>
-      <c r="AI117" s="64">
+      <c r="AI117" s="63">
         <f>H37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ117" s="64">
+      <c r="AJ117" s="63">
         <f>H50</f>
         <v>-31.25</v>
       </c>
-      <c r="AK117" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL117" s="64">
+      <c r="AK117" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL117" s="63">
         <f>H63</f>
         <v>0</v>
       </c>
-      <c r="AM117" s="64">
+      <c r="AM117" s="63">
         <f>H76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE118" s="64"/>
-      <c r="AF118" s="64"/>
-      <c r="AG118" s="64">
+    <row r="118" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE118" s="63"/>
+      <c r="AF118" s="63"/>
+      <c r="AG118" s="63">
         <f>H10</f>
         <v>32</v>
       </c>
-      <c r="AH118" s="64">
+      <c r="AH118" s="63">
         <f>H23</f>
         <v>12</v>
       </c>
-      <c r="AI118" s="64">
+      <c r="AI118" s="63">
         <f>H36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ118" s="64">
+      <c r="AJ118" s="63">
         <f>H49</f>
         <v>-31.25</v>
       </c>
-      <c r="AK118" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL118" s="64">
+      <c r="AK118" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL118" s="63">
         <f>H62</f>
         <v>0</v>
       </c>
-      <c r="AM118" s="64">
+      <c r="AM118" s="63">
         <f>H75</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="119" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE119" s="64"/>
-      <c r="AF119" s="64"/>
-      <c r="AG119" s="64">
+    <row r="119" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE119" s="63"/>
+      <c r="AF119" s="63"/>
+      <c r="AG119" s="63">
         <f>G10</f>
         <v>32</v>
       </c>
-      <c r="AH119" s="64">
+      <c r="AH119" s="63">
         <f>G23</f>
         <v>13</v>
       </c>
-      <c r="AI119" s="64">
+      <c r="AI119" s="63">
         <f>G36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ119" s="64">
+      <c r="AJ119" s="63">
         <f>G49</f>
         <v>-93.75</v>
       </c>
-      <c r="AK119" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL119" s="64">
+      <c r="AK119" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL119" s="63">
         <f>G62</f>
         <v>0</v>
       </c>
-      <c r="AM119" s="64">
+      <c r="AM119" s="63">
         <f>G75</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="120" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE120" s="64"/>
-      <c r="AF120" s="64"/>
-      <c r="AG120" s="64">
+    <row r="120" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE120" s="63"/>
+      <c r="AF120" s="63"/>
+      <c r="AG120" s="63">
         <f>G11</f>
         <v>32</v>
       </c>
-      <c r="AH120" s="64">
+      <c r="AH120" s="63">
         <f>G24</f>
         <v>14</v>
       </c>
-      <c r="AI120" s="64">
+      <c r="AI120" s="63">
         <f>G37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ120" s="64">
+      <c r="AJ120" s="63">
         <f>G50</f>
         <v>-93.75</v>
       </c>
-      <c r="AK120" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL120" s="64">
+      <c r="AK120" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL120" s="63">
         <f>G63</f>
         <v>0</v>
       </c>
-      <c r="AM120" s="64">
+      <c r="AM120" s="63">
         <f>G76</f>
         <v>-90</v>
       </c>
-      <c r="AN120" s="63"/>
-      <c r="AO120" s="63"/>
-      <c r="AP120" s="63"/>
-      <c r="AQ120" s="63"/>
-      <c r="AR120" s="63"/>
-      <c r="AS120" s="63"/>
-      <c r="AT120" s="63"/>
-    </row>
-    <row r="121" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE121" s="64"/>
-      <c r="AF121" s="64"/>
-      <c r="AG121" s="64">
+      <c r="AN120" s="58"/>
+      <c r="AO120" s="58"/>
+      <c r="AP120" s="58"/>
+      <c r="AQ120" s="58"/>
+      <c r="AR120" s="58"/>
+      <c r="AS120" s="58"/>
+      <c r="AT120" s="58"/>
+    </row>
+    <row r="121" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE121" s="63"/>
+      <c r="AF121" s="63"/>
+      <c r="AG121" s="63">
         <f>G12</f>
         <v>32</v>
       </c>
-      <c r="AH121" s="64">
+      <c r="AH121" s="63">
         <f>G25</f>
         <v>15</v>
       </c>
-      <c r="AI121" s="64">
+      <c r="AI121" s="63">
         <f>G38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ121" s="64">
+      <c r="AJ121" s="63">
         <f>G51</f>
         <v>-93.75</v>
       </c>
-      <c r="AK121" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL121" s="64">
+      <c r="AK121" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL121" s="63">
         <f>G64</f>
         <v>0</v>
       </c>
-      <c r="AM121" s="64">
+      <c r="AM121" s="63">
         <f>G77</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="122" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE122" s="64"/>
-      <c r="AF122" s="64"/>
-      <c r="AG122" s="64">
+    <row r="122" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE122" s="63"/>
+      <c r="AF122" s="63"/>
+      <c r="AG122" s="63">
         <f>N13</f>
         <v>33</v>
       </c>
-      <c r="AH122" s="64">
+      <c r="AH122" s="63">
         <f>N26</f>
         <v>1</v>
       </c>
-      <c r="AI122" s="64">
+      <c r="AI122" s="63">
         <f>N39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ122" s="64">
+      <c r="AJ122" s="63">
         <f>N52</f>
         <v>343.75</v>
       </c>
-      <c r="AK122" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL122" s="64">
+      <c r="AK122" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL122" s="63">
         <f>N65</f>
         <v>0</v>
       </c>
-      <c r="AM122" s="64">
+      <c r="AM122" s="63">
         <f>N78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE123" s="64"/>
-      <c r="AF123" s="64"/>
-      <c r="AG123" s="64">
+    <row r="123" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE123" s="63"/>
+      <c r="AF123" s="63"/>
+      <c r="AG123" s="63">
         <f>N12</f>
         <v>33</v>
       </c>
-      <c r="AH123" s="64">
+      <c r="AH123" s="63">
         <f>N25</f>
         <v>2</v>
       </c>
-      <c r="AI123" s="64">
+      <c r="AI123" s="63">
         <f>N38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ123" s="64">
+      <c r="AJ123" s="63">
         <f>N51</f>
         <v>343.75</v>
       </c>
-      <c r="AK123" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL123" s="64">
+      <c r="AK123" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL123" s="63">
         <f>N64</f>
         <v>0</v>
       </c>
-      <c r="AM123" s="64">
+      <c r="AM123" s="63">
         <f>N77</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="124" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE124" s="64"/>
-      <c r="AF124" s="64"/>
-      <c r="AG124" s="64">
+    <row r="124" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE124" s="63"/>
+      <c r="AF124" s="63"/>
+      <c r="AG124" s="63">
         <f>N11</f>
         <v>33</v>
       </c>
-      <c r="AH124" s="64">
+      <c r="AH124" s="63">
         <f>N24</f>
         <v>3</v>
       </c>
-      <c r="AI124" s="64">
+      <c r="AI124" s="63">
         <f>N37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ124" s="64">
+      <c r="AJ124" s="63">
         <f>N50</f>
         <v>343.75</v>
       </c>
-      <c r="AK124" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL124" s="64">
+      <c r="AK124" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="63">
         <f>N63</f>
         <v>0</v>
       </c>
-      <c r="AM124" s="64">
+      <c r="AM124" s="63">
         <f>N76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE125" s="64"/>
-      <c r="AF125" s="64"/>
-      <c r="AG125" s="64">
+    <row r="125" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE125" s="63"/>
+      <c r="AF125" s="63"/>
+      <c r="AG125" s="63">
         <f>N10</f>
         <v>33</v>
       </c>
-      <c r="AH125" s="64">
+      <c r="AH125" s="63">
         <f>N23</f>
         <v>4</v>
       </c>
-      <c r="AI125" s="64">
+      <c r="AI125" s="63">
         <f>N36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ125" s="64">
+      <c r="AJ125" s="63">
         <f>N49</f>
         <v>343.75</v>
       </c>
-      <c r="AK125" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL125" s="64">
+      <c r="AK125" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL125" s="63">
         <f>N62</f>
         <v>0</v>
       </c>
-      <c r="AM125" s="64">
+      <c r="AM125" s="63">
         <f>N75</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="126" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE126" s="64"/>
-      <c r="AF126" s="64"/>
-      <c r="AG126" s="64">
+    <row r="126" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE126" s="63"/>
+      <c r="AF126" s="63"/>
+      <c r="AG126" s="63">
         <f>M10</f>
         <v>33</v>
       </c>
-      <c r="AH126" s="64">
+      <c r="AH126" s="63">
         <f>M23</f>
         <v>5</v>
       </c>
-      <c r="AI126" s="64">
+      <c r="AI126" s="63">
         <f>M36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ126" s="64">
+      <c r="AJ126" s="63">
         <f>M49</f>
         <v>281.25</v>
       </c>
-      <c r="AK126" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL126" s="64">
+      <c r="AK126" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL126" s="63">
         <f>M62</f>
         <v>0</v>
       </c>
-      <c r="AM126" s="64">
+      <c r="AM126" s="63">
         <f>M75</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="127" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE127" s="64"/>
-      <c r="AF127" s="64"/>
-      <c r="AG127" s="64">
+    <row r="127" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE127" s="63"/>
+      <c r="AF127" s="63"/>
+      <c r="AG127" s="63">
         <f>M11</f>
         <v>33</v>
       </c>
-      <c r="AH127" s="64">
+      <c r="AH127" s="63">
         <f>M24</f>
         <v>6</v>
       </c>
-      <c r="AI127" s="64">
+      <c r="AI127" s="63">
         <f>M37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ127" s="64">
+      <c r="AJ127" s="63">
         <f>M50</f>
         <v>281.25</v>
       </c>
-      <c r="AK127" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL127" s="64">
+      <c r="AK127" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL127" s="63">
         <f>M63</f>
         <v>0</v>
       </c>
-      <c r="AM127" s="64">
+      <c r="AM127" s="63">
         <f>M76</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="128" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE128" s="64"/>
-      <c r="AF128" s="64"/>
-      <c r="AG128" s="64">
+    <row r="128" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE128" s="63"/>
+      <c r="AF128" s="63"/>
+      <c r="AG128" s="63">
         <f>M12</f>
         <v>33</v>
       </c>
-      <c r="AH128" s="64">
+      <c r="AH128" s="63">
         <f>M25</f>
         <v>7</v>
       </c>
-      <c r="AI128" s="64">
+      <c r="AI128" s="63">
         <f>M38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ128" s="64">
+      <c r="AJ128" s="63">
         <f>M51</f>
         <v>281.25</v>
       </c>
-      <c r="AK128" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL128" s="64">
+      <c r="AK128" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="63">
         <f>M64</f>
         <v>0</v>
       </c>
-      <c r="AM128" s="64">
+      <c r="AM128" s="63">
         <f>M77</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="129" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE129" s="64"/>
-      <c r="AF129" s="64"/>
-      <c r="AG129" s="64">
+    <row r="129" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE129" s="63"/>
+      <c r="AF129" s="63"/>
+      <c r="AG129" s="63">
         <f>M13</f>
         <v>33</v>
       </c>
-      <c r="AH129" s="64">
+      <c r="AH129" s="63">
         <f>M26</f>
         <v>8</v>
       </c>
-      <c r="AI129" s="64">
+      <c r="AI129" s="63">
         <f>M39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ129" s="64">
+      <c r="AJ129" s="63">
         <f>M52</f>
         <v>281.25</v>
       </c>
-      <c r="AK129" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL129" s="64">
+      <c r="AK129" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL129" s="63">
         <f>M65</f>
         <v>0</v>
       </c>
-      <c r="AM129" s="64">
+      <c r="AM129" s="63">
         <f>M78</f>
         <v>-90</v>
       </c>
     </row>
-    <row r="130" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE130" s="64"/>
-      <c r="AF130" s="64"/>
-      <c r="AG130" s="64">
+    <row r="130" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE130" s="63"/>
+      <c r="AF130" s="63"/>
+      <c r="AG130" s="63">
         <f>L13</f>
         <v>33</v>
       </c>
-      <c r="AH130" s="64">
+      <c r="AH130" s="63">
         <f>L26</f>
         <v>9</v>
       </c>
-      <c r="AI130" s="64">
+      <c r="AI130" s="63">
         <f>L39</f>
         <v>-343.75</v>
       </c>
-      <c r="AJ130" s="64">
+      <c r="AJ130" s="63">
         <f>L52</f>
         <v>218.75</v>
       </c>
-      <c r="AK130" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL130" s="64">
+      <c r="AK130" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL130" s="63">
         <f>L65</f>
         <v>0</v>
       </c>
-      <c r="AM130" s="64">
+      <c r="AM130" s="63">
         <f>L78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE131" s="64"/>
-      <c r="AF131" s="64"/>
-      <c r="AG131" s="64">
+    <row r="131" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE131" s="63"/>
+      <c r="AF131" s="63"/>
+      <c r="AG131" s="63">
         <f>L12</f>
         <v>33</v>
       </c>
-      <c r="AH131" s="64">
+      <c r="AH131" s="63">
         <f>L25</f>
         <v>10</v>
       </c>
-      <c r="AI131" s="64">
+      <c r="AI131" s="63">
         <f>L38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ131" s="64">
+      <c r="AJ131" s="63">
         <f>L51</f>
         <v>218.75</v>
       </c>
-      <c r="AK131" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL131" s="64">
+      <c r="AK131" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL131" s="63">
         <f>L64</f>
         <v>0</v>
       </c>
-      <c r="AM131" s="64">
+      <c r="AM131" s="63">
         <f>L77</f>
         <v>-270</v>
       </c>
     </row>
-    <row r="132" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE132" s="64"/>
-      <c r="AF132" s="64"/>
-      <c r="AG132" s="64">
+    <row r="132" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE132" s="63"/>
+      <c r="AF132" s="63"/>
+      <c r="AG132" s="63">
         <f>L11</f>
         <v>33</v>
       </c>
-      <c r="AH132" s="64">
+      <c r="AH132" s="63">
         <f>L24</f>
         <v>11</v>
       </c>
-      <c r="AI132" s="64">
+      <c r="AI132" s="63">
         <f>L37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ132" s="64">
+      <c r="AJ132" s="63">
         <f>L50</f>
         <v>218.75</v>
       </c>
-      <c r="AK132" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL132" s="64">
+      <c r="AK132" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="63">
         <f>L63</f>
         <v>0</v>
       </c>
-      <c r="AM132" s="64">
+      <c r="AM132" s="63">
         <f>L76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE133" s="64"/>
-      <c r="AF133" s="64"/>
-      <c r="AG133" s="64">
+    <row r="133" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE133" s="63"/>
+      <c r="AF133" s="63"/>
+      <c r="AG133" s="63">
         <f>L10</f>
         <v>33</v>
       </c>
-      <c r="AH133" s="64">
+      <c r="AH133" s="63">
         <f>L23</f>
         <v>12</v>
       </c>
-      <c r="AI133" s="64">
+      <c r="AI133" s="63">
         <f>L36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ133" s="64">
+      <c r="AJ133" s="63">
         <f>L49</f>
         <v>218.75</v>
       </c>
-      <c r="AK133" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL133" s="64">
+      <c r="AK133" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL133" s="63">
         <f>L62</f>
         <v>0</v>
       </c>
-      <c r="AM133" s="64">
+      <c r="AM133" s="63">
         <f>L75</f>
         <v>-270</v>
       </c>
-      <c r="AN133" s="63"/>
-      <c r="AO133" s="63"/>
-      <c r="AP133" s="63"/>
-      <c r="AQ133" s="63"/>
-      <c r="AR133" s="63"/>
-      <c r="AS133" s="63"/>
-      <c r="AT133" s="63"/>
-    </row>
-    <row r="134" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE134" s="64"/>
-      <c r="AF134" s="64"/>
-      <c r="AG134" s="64">
+      <c r="AN133" s="58"/>
+      <c r="AO133" s="58"/>
+      <c r="AP133" s="58"/>
+      <c r="AQ133" s="58"/>
+      <c r="AR133" s="58"/>
+      <c r="AS133" s="58"/>
+      <c r="AT133" s="58"/>
+    </row>
+    <row r="134" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE134" s="63"/>
+      <c r="AF134" s="63"/>
+      <c r="AG134" s="63">
         <f>K10</f>
         <v>33</v>
       </c>
-      <c r="AH134" s="64">
+      <c r="AH134" s="63">
         <f>K23</f>
         <v>13</v>
       </c>
-      <c r="AI134" s="64">
+      <c r="AI134" s="63">
         <f>K36</f>
         <v>-156.25</v>
       </c>
-      <c r="AJ134" s="64">
+      <c r="AJ134" s="63">
         <f>K49</f>
         <v>156.25</v>
       </c>
-      <c r="AK134" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL134" s="64">
+      <c r="AK134" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="63">
         <f>K62</f>
         <v>0</v>
       </c>
-      <c r="AM134" s="64">
+      <c r="AM134" s="63">
         <f>K75</f>
         <v>-180</v>
       </c>
     </row>
-    <row r="135" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE135" s="64"/>
-      <c r="AF135" s="64"/>
-      <c r="AG135" s="64">
+    <row r="135" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE135" s="63"/>
+      <c r="AF135" s="63"/>
+      <c r="AG135" s="63">
         <f>K11</f>
         <v>33</v>
       </c>
-      <c r="AH135" s="64">
+      <c r="AH135" s="63">
         <f>K24</f>
         <v>14</v>
       </c>
-      <c r="AI135" s="64">
+      <c r="AI135" s="63">
         <f>K37</f>
         <v>-218.75</v>
       </c>
-      <c r="AJ135" s="64">
+      <c r="AJ135" s="63">
         <f>K50</f>
         <v>156.25</v>
       </c>
-      <c r="AK135" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL135" s="64">
+      <c r="AK135" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL135" s="63">
         <f>K63</f>
         <v>0</v>
       </c>
-      <c r="AM135" s="64">
+      <c r="AM135" s="63">
         <f>K76</f>
         <v>-90</v>
       </c>
-      <c r="AN135" s="64"/>
-    </row>
-    <row r="136" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE136" s="64"/>
-      <c r="AF136" s="64"/>
-      <c r="AG136" s="64">
+      <c r="AN135" s="63"/>
+    </row>
+    <row r="136" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE136" s="63"/>
+      <c r="AF136" s="63"/>
+      <c r="AG136" s="63">
         <f>K12</f>
         <v>33</v>
       </c>
-      <c r="AH136" s="64">
+      <c r="AH136" s="63">
         <f>K25</f>
         <v>15</v>
       </c>
-      <c r="AI136" s="64">
+      <c r="AI136" s="63">
         <f>K38</f>
         <v>-281.25</v>
       </c>
-      <c r="AJ136" s="64">
+      <c r="AJ136" s="63">
         <f>K51</f>
         <v>156.25</v>
       </c>
-      <c r="AK136" s="64">
-        <v>0</v>
-      </c>
-      <c r="AL136" s="64">
+      <c r="AK136" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="63">
         <f>K64</f>
         <v>0</v>
       </c>
-      <c r="AM136" s="64">
+      <c r="AM136" s="63">
         <f>K77</f>
         <v>-180</v>
       </c>
-      <c r="AN136" s="64"/>
-    </row>
-    <row r="137" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE137" s="64"/>
-      <c r="AF137" s="64"/>
-      <c r="AG137" s="64"/>
-      <c r="AH137" s="64"/>
-      <c r="AI137" s="64"/>
-      <c r="AJ137" s="64"/>
-      <c r="AK137" s="64"/>
-      <c r="AL137" s="64"/>
-      <c r="AM137" s="64"/>
-      <c r="AN137" s="64"/>
-    </row>
-    <row r="138" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE138" s="64"/>
-      <c r="AF138" s="64"/>
-      <c r="AG138" s="64"/>
-      <c r="AH138" s="64"/>
-      <c r="AI138" s="64"/>
-      <c r="AJ138" s="64"/>
-      <c r="AK138" s="64"/>
-      <c r="AL138" s="64"/>
-      <c r="AM138" s="64"/>
-      <c r="AN138" s="64"/>
-    </row>
-    <row r="139" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE139" s="64"/>
-      <c r="AF139" s="64"/>
-      <c r="AG139" s="64"/>
-      <c r="AH139" s="64"/>
-      <c r="AI139" s="64"/>
-      <c r="AJ139" s="64"/>
-      <c r="AK139" s="64"/>
-      <c r="AL139" s="64"/>
-      <c r="AM139" s="64"/>
-      <c r="AN139" s="64"/>
-    </row>
-    <row r="140" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE140" s="64"/>
-      <c r="AF140" s="64"/>
-      <c r="AG140" s="64"/>
-      <c r="AH140" s="64"/>
-      <c r="AI140" s="64"/>
-      <c r="AJ140" s="64"/>
-      <c r="AK140" s="64"/>
-      <c r="AL140" s="64"/>
-      <c r="AM140" s="64"/>
-      <c r="AN140" s="64"/>
-    </row>
-    <row r="141" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE141" s="64"/>
-      <c r="AF141" s="64"/>
-      <c r="AG141" s="64"/>
-      <c r="AH141" s="64"/>
-      <c r="AI141" s="64"/>
-      <c r="AJ141" s="64"/>
-      <c r="AK141" s="64"/>
-      <c r="AL141" s="64"/>
-      <c r="AM141" s="64"/>
-      <c r="AN141" s="64"/>
-    </row>
-    <row r="142" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE142" s="64"/>
-      <c r="AF142" s="64"/>
-      <c r="AG142" s="64"/>
-      <c r="AH142" s="64"/>
-      <c r="AI142" s="64"/>
-      <c r="AJ142" s="64"/>
-      <c r="AK142" s="64"/>
-      <c r="AL142" s="64"/>
-      <c r="AM142" s="64"/>
-      <c r="AN142" s="64"/>
-    </row>
-    <row r="143" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE143" s="64"/>
-      <c r="AF143" s="64"/>
-      <c r="AG143" s="64"/>
-      <c r="AH143" s="64"/>
-      <c r="AI143" s="64"/>
-      <c r="AJ143" s="64"/>
-      <c r="AK143" s="64"/>
-      <c r="AL143" s="64"/>
-      <c r="AM143" s="64"/>
-      <c r="AN143" s="64"/>
-    </row>
-    <row r="144" spans="31:46" x14ac:dyDescent="0.4">
-      <c r="AE144" s="64"/>
-      <c r="AF144" s="64"/>
-      <c r="AG144" s="64"/>
-      <c r="AH144" s="64"/>
-      <c r="AI144" s="64"/>
-      <c r="AJ144" s="64"/>
-      <c r="AK144" s="64"/>
-      <c r="AL144" s="64"/>
-      <c r="AM144" s="64"/>
-      <c r="AN144" s="64"/>
-    </row>
-    <row r="145" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE145" s="64"/>
-      <c r="AF145" s="64"/>
-      <c r="AG145" s="64"/>
-      <c r="AH145" s="64"/>
-      <c r="AI145" s="64"/>
-      <c r="AJ145" s="64"/>
-      <c r="AK145" s="64"/>
-      <c r="AL145" s="64"/>
-      <c r="AM145" s="64"/>
-      <c r="AN145" s="64"/>
-    </row>
-    <row r="146" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE146" s="64"/>
-      <c r="AF146" s="64"/>
-      <c r="AG146" s="64"/>
-      <c r="AH146" s="64"/>
-      <c r="AI146" s="64"/>
-      <c r="AJ146" s="64"/>
-      <c r="AK146" s="64"/>
-      <c r="AL146" s="64"/>
-      <c r="AM146" s="64"/>
-      <c r="AN146" s="64"/>
-    </row>
-    <row r="147" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE147" s="64"/>
-      <c r="AF147" s="64"/>
-      <c r="AG147" s="64"/>
-      <c r="AH147" s="64"/>
-      <c r="AI147" s="64"/>
-      <c r="AJ147" s="64"/>
-      <c r="AK147" s="64"/>
-      <c r="AL147" s="64"/>
-      <c r="AM147" s="64"/>
-      <c r="AN147" s="64"/>
-    </row>
-    <row r="148" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE148" s="64"/>
-      <c r="AF148" s="64"/>
-      <c r="AG148" s="64"/>
-      <c r="AH148" s="64"/>
-      <c r="AI148" s="64"/>
-      <c r="AJ148" s="64"/>
-      <c r="AK148" s="64"/>
-      <c r="AL148" s="64"/>
-      <c r="AM148" s="64"/>
-      <c r="AN148" s="64"/>
-    </row>
-    <row r="149" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE149" s="64"/>
-      <c r="AF149" s="64"/>
-      <c r="AG149" s="64"/>
-      <c r="AH149" s="64"/>
-      <c r="AI149" s="64"/>
-      <c r="AJ149" s="64"/>
-      <c r="AK149" s="64"/>
-      <c r="AL149" s="64"/>
-      <c r="AM149" s="64"/>
-      <c r="AN149" s="64"/>
-    </row>
-    <row r="150" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE150" s="64"/>
-      <c r="AF150" s="64"/>
-      <c r="AG150" s="64"/>
-      <c r="AH150" s="64"/>
-      <c r="AI150" s="64"/>
-      <c r="AJ150" s="64"/>
-      <c r="AK150" s="64"/>
-      <c r="AL150" s="64"/>
-      <c r="AM150" s="64"/>
-      <c r="AN150" s="64"/>
-    </row>
-    <row r="151" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE151" s="64"/>
-      <c r="AF151" s="64"/>
-      <c r="AG151" s="64"/>
-      <c r="AH151" s="64"/>
-      <c r="AI151" s="64"/>
-      <c r="AJ151" s="64"/>
-      <c r="AK151" s="64"/>
-      <c r="AL151" s="64"/>
-      <c r="AM151" s="64"/>
-      <c r="AN151" s="64"/>
-    </row>
-    <row r="152" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE152" s="64"/>
-      <c r="AF152" s="64"/>
-      <c r="AG152" s="64"/>
-      <c r="AH152" s="64"/>
-      <c r="AI152" s="64"/>
-      <c r="AJ152" s="64"/>
-      <c r="AK152" s="64"/>
-      <c r="AL152" s="64"/>
-      <c r="AM152" s="64"/>
-      <c r="AN152" s="64"/>
-    </row>
-    <row r="153" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE153" s="64"/>
-      <c r="AF153" s="64"/>
-      <c r="AG153" s="64"/>
-      <c r="AH153" s="64"/>
-      <c r="AI153" s="64"/>
-      <c r="AJ153" s="64"/>
-      <c r="AK153" s="64"/>
-      <c r="AL153" s="64"/>
-      <c r="AM153" s="64"/>
-      <c r="AN153" s="64"/>
-    </row>
-    <row r="154" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AE154" s="64"/>
-      <c r="AF154" s="64"/>
-      <c r="AG154" s="64"/>
-      <c r="AH154" s="64"/>
-      <c r="AI154" s="64"/>
-      <c r="AJ154" s="64"/>
-      <c r="AK154" s="64"/>
-      <c r="AL154" s="64"/>
-      <c r="AM154" s="64"/>
-      <c r="AN154" s="64"/>
-    </row>
-    <row r="155" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AN155" s="64"/>
-    </row>
-    <row r="156" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AN156" s="64"/>
-    </row>
-    <row r="157" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AN157" s="64"/>
-    </row>
-    <row r="158" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AN158" s="64"/>
-    </row>
-    <row r="159" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AN159" s="64"/>
-    </row>
-    <row r="160" spans="31:40" x14ac:dyDescent="0.4">
-      <c r="AN160" s="64"/>
-    </row>
-    <row r="161" spans="40:40" x14ac:dyDescent="0.4">
-      <c r="AN161" s="64"/>
-    </row>
-    <row r="162" spans="40:40" x14ac:dyDescent="0.4">
-      <c r="AN162" s="64"/>
-    </row>
-    <row r="163" spans="40:40" x14ac:dyDescent="0.4">
-      <c r="AN163" s="64"/>
+      <c r="AN136" s="63"/>
+    </row>
+    <row r="137" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE137" s="63"/>
+      <c r="AF137" s="63"/>
+      <c r="AG137" s="63"/>
+      <c r="AH137" s="63"/>
+      <c r="AI137" s="63"/>
+      <c r="AJ137" s="63"/>
+      <c r="AK137" s="63"/>
+      <c r="AL137" s="63"/>
+      <c r="AM137" s="63"/>
+      <c r="AN137" s="63"/>
+    </row>
+    <row r="138" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE138" s="63"/>
+      <c r="AF138" s="63"/>
+      <c r="AG138" s="63"/>
+      <c r="AH138" s="63"/>
+      <c r="AI138" s="63"/>
+      <c r="AJ138" s="63"/>
+      <c r="AK138" s="63"/>
+      <c r="AL138" s="63"/>
+      <c r="AM138" s="63"/>
+      <c r="AN138" s="63"/>
+    </row>
+    <row r="139" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE139" s="63"/>
+      <c r="AF139" s="63"/>
+      <c r="AG139" s="63"/>
+      <c r="AH139" s="63"/>
+      <c r="AI139" s="63"/>
+      <c r="AJ139" s="63"/>
+      <c r="AK139" s="63"/>
+      <c r="AL139" s="63"/>
+      <c r="AM139" s="63"/>
+      <c r="AN139" s="63"/>
+    </row>
+    <row r="140" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE140" s="63"/>
+      <c r="AF140" s="63"/>
+      <c r="AG140" s="63"/>
+      <c r="AH140" s="63"/>
+      <c r="AI140" s="63"/>
+      <c r="AJ140" s="63"/>
+      <c r="AK140" s="63"/>
+      <c r="AL140" s="63"/>
+      <c r="AM140" s="63"/>
+      <c r="AN140" s="63"/>
+    </row>
+    <row r="141" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE141" s="63"/>
+      <c r="AF141" s="63"/>
+      <c r="AG141" s="63"/>
+      <c r="AH141" s="63"/>
+      <c r="AI141" s="63"/>
+      <c r="AJ141" s="63"/>
+      <c r="AK141" s="63"/>
+      <c r="AL141" s="63"/>
+      <c r="AM141" s="63"/>
+      <c r="AN141" s="63"/>
+    </row>
+    <row r="142" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE142" s="63"/>
+      <c r="AF142" s="63"/>
+      <c r="AG142" s="63"/>
+      <c r="AH142" s="63"/>
+      <c r="AI142" s="63"/>
+      <c r="AJ142" s="63"/>
+      <c r="AK142" s="63"/>
+      <c r="AL142" s="63"/>
+      <c r="AM142" s="63"/>
+      <c r="AN142" s="63"/>
+    </row>
+    <row r="143" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE143" s="63"/>
+      <c r="AF143" s="63"/>
+      <c r="AG143" s="63"/>
+      <c r="AH143" s="63"/>
+      <c r="AI143" s="63"/>
+      <c r="AJ143" s="63"/>
+      <c r="AK143" s="63"/>
+      <c r="AL143" s="63"/>
+      <c r="AM143" s="63"/>
+      <c r="AN143" s="63"/>
+    </row>
+    <row r="144" spans="31:46" x14ac:dyDescent="0.45">
+      <c r="AE144" s="63"/>
+      <c r="AF144" s="63"/>
+      <c r="AG144" s="63"/>
+      <c r="AH144" s="63"/>
+      <c r="AI144" s="63"/>
+      <c r="AJ144" s="63"/>
+      <c r="AK144" s="63"/>
+      <c r="AL144" s="63"/>
+      <c r="AM144" s="63"/>
+      <c r="AN144" s="63"/>
+    </row>
+    <row r="145" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE145" s="63"/>
+      <c r="AF145" s="63"/>
+      <c r="AG145" s="63"/>
+      <c r="AH145" s="63"/>
+      <c r="AI145" s="63"/>
+      <c r="AJ145" s="63"/>
+      <c r="AK145" s="63"/>
+      <c r="AL145" s="63"/>
+      <c r="AM145" s="63"/>
+      <c r="AN145" s="63"/>
+    </row>
+    <row r="146" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE146" s="63"/>
+      <c r="AF146" s="63"/>
+      <c r="AG146" s="63"/>
+      <c r="AH146" s="63"/>
+      <c r="AI146" s="63"/>
+      <c r="AJ146" s="63"/>
+      <c r="AK146" s="63"/>
+      <c r="AL146" s="63"/>
+      <c r="AM146" s="63"/>
+      <c r="AN146" s="63"/>
+    </row>
+    <row r="147" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE147" s="63"/>
+      <c r="AF147" s="63"/>
+      <c r="AG147" s="63"/>
+      <c r="AH147" s="63"/>
+      <c r="AI147" s="63"/>
+      <c r="AJ147" s="63"/>
+      <c r="AK147" s="63"/>
+      <c r="AL147" s="63"/>
+      <c r="AM147" s="63"/>
+      <c r="AN147" s="63"/>
+    </row>
+    <row r="148" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE148" s="63"/>
+      <c r="AF148" s="63"/>
+      <c r="AG148" s="63"/>
+      <c r="AH148" s="63"/>
+      <c r="AI148" s="63"/>
+      <c r="AJ148" s="63"/>
+      <c r="AK148" s="63"/>
+      <c r="AL148" s="63"/>
+      <c r="AM148" s="63"/>
+      <c r="AN148" s="63"/>
+    </row>
+    <row r="149" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE149" s="63"/>
+      <c r="AF149" s="63"/>
+      <c r="AG149" s="63"/>
+      <c r="AH149" s="63"/>
+      <c r="AI149" s="63"/>
+      <c r="AJ149" s="63"/>
+      <c r="AK149" s="63"/>
+      <c r="AL149" s="63"/>
+      <c r="AM149" s="63"/>
+      <c r="AN149" s="63"/>
+    </row>
+    <row r="150" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE150" s="63"/>
+      <c r="AF150" s="63"/>
+      <c r="AG150" s="63"/>
+      <c r="AH150" s="63"/>
+      <c r="AI150" s="63"/>
+      <c r="AJ150" s="63"/>
+      <c r="AK150" s="63"/>
+      <c r="AL150" s="63"/>
+      <c r="AM150" s="63"/>
+      <c r="AN150" s="63"/>
+    </row>
+    <row r="151" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE151" s="63"/>
+      <c r="AF151" s="63"/>
+      <c r="AG151" s="63"/>
+      <c r="AH151" s="63"/>
+      <c r="AI151" s="63"/>
+      <c r="AJ151" s="63"/>
+      <c r="AK151" s="63"/>
+      <c r="AL151" s="63"/>
+      <c r="AM151" s="63"/>
+      <c r="AN151" s="63"/>
+    </row>
+    <row r="152" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE152" s="63"/>
+      <c r="AF152" s="63"/>
+      <c r="AG152" s="63"/>
+      <c r="AH152" s="63"/>
+      <c r="AI152" s="63"/>
+      <c r="AJ152" s="63"/>
+      <c r="AK152" s="63"/>
+      <c r="AL152" s="63"/>
+      <c r="AM152" s="63"/>
+      <c r="AN152" s="63"/>
+    </row>
+    <row r="153" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE153" s="63"/>
+      <c r="AF153" s="63"/>
+      <c r="AG153" s="63"/>
+      <c r="AH153" s="63"/>
+      <c r="AI153" s="63"/>
+      <c r="AJ153" s="63"/>
+      <c r="AK153" s="63"/>
+      <c r="AL153" s="63"/>
+      <c r="AM153" s="63"/>
+      <c r="AN153" s="63"/>
+    </row>
+    <row r="154" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AE154" s="63"/>
+      <c r="AF154" s="63"/>
+      <c r="AG154" s="63"/>
+      <c r="AH154" s="63"/>
+      <c r="AI154" s="63"/>
+      <c r="AJ154" s="63"/>
+      <c r="AK154" s="63"/>
+      <c r="AL154" s="63"/>
+      <c r="AM154" s="63"/>
+      <c r="AN154" s="63"/>
+    </row>
+    <row r="155" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AN155" s="63"/>
+    </row>
+    <row r="156" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AN156" s="63"/>
+    </row>
+    <row r="157" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AN157" s="63"/>
+    </row>
+    <row r="158" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AN158" s="63"/>
+    </row>
+    <row r="159" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AN159" s="63"/>
+    </row>
+    <row r="160" spans="31:40" x14ac:dyDescent="0.45">
+      <c r="AN160" s="63"/>
+    </row>
+    <row r="161" spans="40:40" x14ac:dyDescent="0.45">
+      <c r="AN161" s="63"/>
+    </row>
+    <row r="162" spans="40:40" x14ac:dyDescent="0.45">
+      <c r="AN162" s="63"/>
+    </row>
+    <row r="163" spans="40:40" x14ac:dyDescent="0.45">
+      <c r="AN163" s="63"/>
     </row>
   </sheetData>
-  <sortState ref="AE2:AM166">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE2:AM166">
     <sortCondition ref="AE1"/>
   </sortState>
   <mergeCells count="10">
